--- a/cruzamento_mm.xlsx
+++ b/cruzamento_mm.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumo_Backtest" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cruzamento_mm" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cross_MM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,10 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,13 +30,6 @@
     </font>
     <font>
       <b val="1"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,25 +56,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3" hidden="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -377,210 +362,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Resumo do Backtest</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Periodo avaliado:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2019-01-01 00:00:00 até 2019-12-31 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Papel:</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PETR4.SA</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Capital:</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Média Móvel Curta:</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Média Móvel Longa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Resultado Financeiro: R$</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>-168.0172931782745</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Rentabilidade:</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>-0.03360345863565491</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Número de entradas Executadas: </t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Número de operações Vencedoras:</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Número de operações Perdedoras:</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>O payoff da estratégia é:</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.55291656673284</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>O drawdown máximo da estratégia é de:</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A taxa de acerto da estratégia é de:</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>0.3636363636363636</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A expectativa matemática da estratégia é de:</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>0.9882196333754435</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Valor gasto com corretagem:</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>O valor de IR é:</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Resultado líquido após corretagem e IR:</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>-278.0172931782745</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:M228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -657,7 +438,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="2" t="n">
         <v>43496</v>
       </c>
       <c r="B2" t="n">
@@ -673,7 +454,7 @@
         <v>25.57999992370605</v>
       </c>
       <c r="F2" t="n">
-        <v>24.75630378723145</v>
+        <v>24.75581359863281</v>
       </c>
       <c r="G2" t="n">
         <v>63253600</v>
@@ -698,7 +479,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="2" t="n">
         <v>43497</v>
       </c>
       <c r="B3" t="n">
@@ -714,7 +495,7 @@
         <v>25.79999923706055</v>
       </c>
       <c r="F3" t="n">
-        <v>24.9692211151123</v>
+        <v>24.96872520446777</v>
       </c>
       <c r="G3" t="n">
         <v>47957400</v>
@@ -739,7 +520,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="2" t="n">
         <v>43500</v>
       </c>
       <c r="B4" t="n">
@@ -755,7 +536,7 @@
         <v>26.03000068664551</v>
       </c>
       <c r="F4" t="n">
-        <v>25.19181251525879</v>
+        <v>25.19131278991699</v>
       </c>
       <c r="G4" t="n">
         <v>53874900</v>
@@ -780,7 +561,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="2" t="n">
         <v>43501</v>
       </c>
       <c r="B5" t="n">
@@ -796,7 +577,7 @@
         <v>26.07999992370605</v>
       </c>
       <c r="F5" t="n">
-        <v>25.24020385742188</v>
+        <v>25.23970222473145</v>
       </c>
       <c r="G5" t="n">
         <v>40989100</v>
@@ -821,7 +602,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="2" t="n">
         <v>43502</v>
       </c>
       <c r="B6" t="n">
@@ -837,7 +618,7 @@
         <v>25.48999977111816</v>
       </c>
       <c r="F6" t="n">
-        <v>24.66920280456543</v>
+        <v>24.6687126159668</v>
       </c>
       <c r="G6" t="n">
         <v>64527000</v>
@@ -862,7 +643,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="2" t="n">
         <v>43503</v>
       </c>
       <c r="B7" t="n">
@@ -878,7 +659,7 @@
         <v>25.09000015258789</v>
       </c>
       <c r="F7" t="n">
-        <v>24.28208541870117</v>
+        <v>24.28160095214844</v>
       </c>
       <c r="G7" t="n">
         <v>55614100</v>
@@ -903,7 +684,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="2" t="n">
         <v>43504</v>
       </c>
       <c r="B8" t="n">
@@ -919,7 +700,7 @@
         <v>25.1299991607666</v>
       </c>
       <c r="F8" t="n">
-        <v>24.32079315185547</v>
+        <v>24.32030868530273</v>
       </c>
       <c r="G8" t="n">
         <v>40153900</v>
@@ -944,7 +725,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="2" t="n">
         <v>43507</v>
       </c>
       <c r="B9" t="n">
@@ -960,7 +741,7 @@
         <v>24.84000015258789</v>
       </c>
       <c r="F9" t="n">
-        <v>24.04013252258301</v>
+        <v>24.0396556854248</v>
       </c>
       <c r="G9" t="n">
         <v>39617300</v>
@@ -985,7 +766,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="2" t="n">
         <v>43508</v>
       </c>
       <c r="B10" t="n">
@@ -1001,7 +782,7 @@
         <v>25.71999931335449</v>
       </c>
       <c r="F10" t="n">
-        <v>24.89179611206055</v>
+        <v>24.89130210876465</v>
       </c>
       <c r="G10" t="n">
         <v>72467200</v>
@@ -1026,7 +807,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="2" t="n">
         <v>43509</v>
       </c>
       <c r="B11" t="n">
@@ -1042,7 +823,7 @@
         <v>26.04999923706055</v>
       </c>
       <c r="F11" t="n">
-        <v>25.2111701965332</v>
+        <v>25.21066856384277</v>
       </c>
       <c r="G11" t="n">
         <v>69042200</v>
@@ -1067,7 +848,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="2" t="n">
         <v>43510</v>
       </c>
       <c r="B12" t="n">
@@ -1083,7 +864,7 @@
         <v>26.95000076293945</v>
       </c>
       <c r="F12" t="n">
-        <v>26.08219146728516</v>
+        <v>26.0816707611084</v>
       </c>
       <c r="G12" t="n">
         <v>81125500</v>
@@ -1108,7 +889,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="2" t="n">
         <v>43511</v>
       </c>
       <c r="B13" t="n">
@@ -1124,7 +905,7 @@
         <v>26.84000015258789</v>
       </c>
       <c r="F13" t="n">
-        <v>25.97573280334473</v>
+        <v>25.97521591186523</v>
       </c>
       <c r="G13" t="n">
         <v>63841800</v>
@@ -1149,7 +930,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="2" t="n">
         <v>43514</v>
       </c>
       <c r="B14" t="n">
@@ -1165,7 +946,7 @@
         <v>26.76000022888184</v>
       </c>
       <c r="F14" t="n">
-        <v>25.89830589294434</v>
+        <v>25.89779090881348</v>
       </c>
       <c r="G14" t="n">
         <v>43379000</v>
@@ -1190,7 +971,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="2" t="n">
         <v>43515</v>
       </c>
       <c r="B15" t="n">
@@ -1206,7 +987,7 @@
         <v>27.3799991607666</v>
       </c>
       <c r="F15" t="n">
-        <v>26.49834251403809</v>
+        <v>26.49781608581543</v>
       </c>
       <c r="G15" t="n">
         <v>58041900</v>
@@ -1231,7 +1012,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="2" t="n">
         <v>43516</v>
       </c>
       <c r="B16" t="n">
@@ -1247,7 +1028,7 @@
         <v>27.04000091552734</v>
       </c>
       <c r="F16" t="n">
-        <v>26.16929054260254</v>
+        <v>26.16876983642578</v>
       </c>
       <c r="G16" t="n">
         <v>55114500</v>
@@ -1272,7 +1053,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="2" t="n">
         <v>43517</v>
       </c>
       <c r="B17" t="n">
@@ -1288,7 +1069,7 @@
         <v>27.39999961853027</v>
       </c>
       <c r="F17" t="n">
-        <v>26.51769638061523</v>
+        <v>26.51716995239258</v>
       </c>
       <c r="G17" t="n">
         <v>46559400</v>
@@ -1313,7 +1094,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="2" t="n">
         <v>43518</v>
       </c>
       <c r="B18" t="n">
@@ -1329,7 +1110,7 @@
         <v>27.1299991607666</v>
       </c>
       <c r="F18" t="n">
-        <v>26.25639152526855</v>
+        <v>26.25587272644043</v>
       </c>
       <c r="G18" t="n">
         <v>36602000</v>
@@ -1354,7 +1135,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="2" t="n">
         <v>43521</v>
       </c>
       <c r="B19" t="n">
@@ -1370,7 +1151,7 @@
         <v>26.70000076293945</v>
       </c>
       <c r="F19" t="n">
-        <v>25.84023857116699</v>
+        <v>25.83972549438477</v>
       </c>
       <c r="G19" t="n">
         <v>54190800</v>
@@ -1395,7 +1176,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="2" t="n">
         <v>43522</v>
       </c>
       <c r="B20" t="n">
@@ -1411,7 +1192,7 @@
         <v>26.57999992370605</v>
       </c>
       <c r="F20" t="n">
-        <v>25.72410202026367</v>
+        <v>25.72359466552734</v>
       </c>
       <c r="G20" t="n">
         <v>46504200</v>
@@ -1436,7 +1217,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n">
+      <c r="A21" s="2" t="n">
         <v>43523</v>
       </c>
       <c r="B21" t="n">
@@ -1452,7 +1233,7 @@
         <v>27.07999992370605</v>
       </c>
       <c r="F21" t="n">
-        <v>26.2080020904541</v>
+        <v>26.20748138427734</v>
       </c>
       <c r="G21" t="n">
         <v>49131400</v>
@@ -1477,7 +1258,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="2" t="n">
         <v>43524</v>
       </c>
       <c r="B22" t="n">
@@ -1493,7 +1274,7 @@
         <v>27.05999946594238</v>
       </c>
       <c r="F22" t="n">
-        <v>26.18864631652832</v>
+        <v>26.1881275177002</v>
       </c>
       <c r="G22" t="n">
         <v>93065100</v>
@@ -1518,7 +1299,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n">
+      <c r="A23" s="2" t="n">
         <v>43525</v>
       </c>
       <c r="B23" t="n">
@@ -1534,7 +1315,7 @@
         <v>26.70000076293945</v>
       </c>
       <c r="F23" t="n">
-        <v>25.84023857116699</v>
+        <v>25.83972549438477</v>
       </c>
       <c r="G23" t="n">
         <v>41978700</v>
@@ -1559,7 +1340,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n">
+      <c r="A24" s="2" t="n">
         <v>43531</v>
       </c>
       <c r="B24" t="n">
@@ -1575,7 +1356,7 @@
         <v>26.77000045776367</v>
       </c>
       <c r="F24" t="n">
-        <v>25.90798568725586</v>
+        <v>25.907470703125</v>
       </c>
       <c r="G24" t="n">
         <v>32835300</v>
@@ -1600,7 +1381,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n">
+      <c r="A25" s="2" t="n">
         <v>43532</v>
       </c>
       <c r="B25" t="n">
@@ -1616,7 +1397,7 @@
         <v>26.67000007629395</v>
       </c>
       <c r="F25" t="n">
-        <v>25.81120491027832</v>
+        <v>25.81068992614746</v>
       </c>
       <c r="G25" t="n">
         <v>49564400</v>
@@ -1641,7 +1422,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="n">
+      <c r="A26" s="2" t="n">
         <v>43535</v>
       </c>
       <c r="B26" t="n">
@@ -1657,7 +1438,7 @@
         <v>27.75</v>
       </c>
       <c r="F26" t="n">
-        <v>26.8564281463623</v>
+        <v>26.85589599609375</v>
       </c>
       <c r="G26" t="n">
         <v>66742800</v>
@@ -1682,7 +1463,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n">
+      <c r="A27" s="2" t="n">
         <v>43536</v>
       </c>
       <c r="B27" t="n">
@@ -1698,7 +1479,7 @@
         <v>27.5</v>
       </c>
       <c r="F27" t="n">
-        <v>26.61447525024414</v>
+        <v>26.61394691467285</v>
       </c>
       <c r="G27" t="n">
         <v>64287300</v>
@@ -1723,7 +1504,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="n">
+      <c r="A28" s="2" t="n">
         <v>43537</v>
       </c>
       <c r="B28" t="n">
@@ -1739,7 +1520,7 @@
         <v>28.10000038146973</v>
       </c>
       <c r="F28" t="n">
-        <v>27.19515991210938</v>
+        <v>27.19462013244629</v>
       </c>
       <c r="G28" t="n">
         <v>61057200</v>
@@ -1764,7 +1545,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n">
+      <c r="A29" s="2" t="n">
         <v>43538</v>
       </c>
       <c r="B29" t="n">
@@ -1780,7 +1561,7 @@
         <v>28.19000053405762</v>
       </c>
       <c r="F29" t="n">
-        <v>27.28226089477539</v>
+        <v>27.28171920776367</v>
       </c>
       <c r="G29" t="n">
         <v>42777800</v>
@@ -1805,7 +1586,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="n">
+      <c r="A30" s="2" t="n">
         <v>43539</v>
       </c>
       <c r="B30" t="n">
@@ -1821,7 +1602,7 @@
         <v>28.25</v>
       </c>
       <c r="F30" t="n">
-        <v>27.3403263092041</v>
+        <v>27.33978462219238</v>
       </c>
       <c r="G30" t="n">
         <v>61041100</v>
@@ -1846,7 +1627,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n">
+      <c r="A31" s="2" t="n">
         <v>43542</v>
       </c>
       <c r="B31" t="n">
@@ -1862,7 +1643,7 @@
         <v>28.73999977111816</v>
       </c>
       <c r="F31" t="n">
-        <v>27.81455230712891</v>
+        <v>27.81399917602539</v>
       </c>
       <c r="G31" t="n">
         <v>91920600</v>
@@ -1887,7 +1668,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="n">
+      <c r="A32" s="2" t="n">
         <v>43543</v>
       </c>
       <c r="B32" t="n">
@@ -1903,7 +1684,7 @@
         <v>29.20000076293945</v>
       </c>
       <c r="F32" t="n">
-        <v>28.25973510742188</v>
+        <v>28.25917434692383</v>
       </c>
       <c r="G32" t="n">
         <v>69423600</v>
@@ -1928,7 +1709,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n">
+      <c r="A33" s="2" t="n">
         <v>43544</v>
       </c>
       <c r="B33" t="n">
@@ -1944,7 +1725,7 @@
         <v>28.96999931335449</v>
       </c>
       <c r="F33" t="n">
-        <v>28.03713989257812</v>
+        <v>28.03658485412598</v>
       </c>
       <c r="G33" t="n">
         <v>68878000</v>
@@ -1969,7 +1750,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n">
+      <c r="A34" s="2" t="n">
         <v>43545</v>
       </c>
       <c r="B34" t="n">
@@ -1985,7 +1766,7 @@
         <v>28.55999946594238</v>
       </c>
       <c r="F34" t="n">
-        <v>27.64034271240234</v>
+        <v>27.63979721069336</v>
       </c>
       <c r="G34" t="n">
         <v>80121300</v>
@@ -2010,7 +1791,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n">
+      <c r="A35" s="2" t="n">
         <v>43546</v>
       </c>
       <c r="B35" t="n">
@@ -2026,7 +1807,7 @@
         <v>27</v>
       </c>
       <c r="F35" t="n">
-        <v>26.13057899475098</v>
+        <v>26.13006019592285</v>
       </c>
       <c r="G35" t="n">
         <v>104731100</v>
@@ -2051,7 +1832,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n">
+      <c r="A36" s="2" t="n">
         <v>43549</v>
       </c>
       <c r="B36" t="n">
@@ -2067,7 +1848,7 @@
         <v>27.34000015258789</v>
       </c>
       <c r="F36" t="n">
-        <v>26.45963096618652</v>
+        <v>26.45910453796387</v>
       </c>
       <c r="G36" t="n">
         <v>104772900</v>
@@ -2092,7 +1873,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n">
+      <c r="A37" s="2" t="n">
         <v>43550</v>
       </c>
       <c r="B37" t="n">
@@ -2108,7 +1889,7 @@
         <v>28.6299991607666</v>
       </c>
       <c r="F37" t="n">
-        <v>27.70808982849121</v>
+        <v>27.70753860473633</v>
       </c>
       <c r="G37" t="n">
         <v>91549100</v>
@@ -2133,7 +1914,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n">
+      <c r="A38" s="2" t="n">
         <v>43551</v>
       </c>
       <c r="B38" t="n">
@@ -2149,7 +1930,7 @@
         <v>27.34000015258789</v>
       </c>
       <c r="F38" t="n">
-        <v>26.45963096618652</v>
+        <v>26.45910453796387</v>
       </c>
       <c r="G38" t="n">
         <v>66415400</v>
@@ -2174,7 +1955,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n">
+      <c r="A39" s="2" t="n">
         <v>43552</v>
       </c>
       <c r="B39" t="n">
@@ -2190,7 +1971,7 @@
         <v>28.05999946594238</v>
       </c>
       <c r="F39" t="n">
-        <v>27.15644264221191</v>
+        <v>27.15590476989746</v>
       </c>
       <c r="G39" t="n">
         <v>69412700</v>
@@ -2215,7 +1996,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n">
+      <c r="A40" s="2" t="n">
         <v>43553</v>
       </c>
       <c r="B40" t="n">
@@ -2231,7 +2012,7 @@
         <v>28.05999946594238</v>
       </c>
       <c r="F40" t="n">
-        <v>27.15644264221191</v>
+        <v>27.15590476989746</v>
       </c>
       <c r="G40" t="n">
         <v>51587400</v>
@@ -2256,7 +2037,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n">
+      <c r="A41" s="2" t="n">
         <v>43556</v>
       </c>
       <c r="B41" t="n">
@@ -2272,7 +2053,7 @@
         <v>28</v>
       </c>
       <c r="F41" t="n">
-        <v>27.0983772277832</v>
+        <v>27.09783935546875</v>
       </c>
       <c r="G41" t="n">
         <v>42289800</v>
@@ -2297,7 +2078,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n">
+      <c r="A42" s="2" t="n">
         <v>43557</v>
       </c>
       <c r="B42" t="n">
@@ -2313,7 +2094,7 @@
         <v>28.29000091552734</v>
       </c>
       <c r="F42" t="n">
-        <v>27.37904167175293</v>
+        <v>27.37849807739258</v>
       </c>
       <c r="G42" t="n">
         <v>38460600</v>
@@ -2338,7 +2119,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n">
+      <c r="A43" s="2" t="n">
         <v>43558</v>
       </c>
       <c r="B43" t="n">
@@ -2354,7 +2135,7 @@
         <v>27.54000091552734</v>
       </c>
       <c r="F43" t="n">
-        <v>26.6531925201416</v>
+        <v>26.65266227722168</v>
       </c>
       <c r="G43" t="n">
         <v>55120900</v>
@@ -2379,7 +2160,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n">
+      <c r="A44" s="2" t="n">
         <v>43559</v>
       </c>
       <c r="B44" t="n">
@@ -2395,7 +2176,7 @@
         <v>28.46999931335449</v>
       </c>
       <c r="F44" t="n">
-        <v>27.55324172973633</v>
+        <v>27.55269432067871</v>
       </c>
       <c r="G44" t="n">
         <v>52248100</v>
@@ -2410,7 +2191,7 @@
         <v>-0.002857208251953125</v>
       </c>
       <c r="K44" t="n">
-        <v>28.46999931335449</v>
+        <v>27.54000091552734</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2420,7 +2201,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n">
+      <c r="A45" s="2" t="n">
         <v>43560</v>
       </c>
       <c r="B45" t="n">
@@ -2436,7 +2217,7 @@
         <v>28.78000068664551</v>
       </c>
       <c r="F45" t="n">
-        <v>27.85326194763184</v>
+        <v>27.85270690917969</v>
       </c>
       <c r="G45" t="n">
         <v>54708900</v>
@@ -2457,11 +2238,11 @@
         <v>28.78000068664551</v>
       </c>
       <c r="M45" t="n">
-        <v>-53.85708233058911</v>
+        <v>-230.7591353905835</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n">
+      <c r="A46" s="2" t="n">
         <v>43563</v>
       </c>
       <c r="B46" t="n">
@@ -2477,7 +2258,7 @@
         <v>29.25</v>
       </c>
       <c r="F46" t="n">
-        <v>28.30812454223633</v>
+        <v>28.30756187438965</v>
       </c>
       <c r="G46" t="n">
         <v>55270000</v>
@@ -2492,7 +2273,7 @@
         <v>0.007460397387308859</v>
       </c>
       <c r="K46" t="n">
-        <v>29.25</v>
+        <v>28.78000068664551</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2502,7 +2283,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n">
+      <c r="A47" s="2" t="n">
         <v>43564</v>
       </c>
       <c r="B47" t="n">
@@ -2518,7 +2299,7 @@
         <v>29.15999984741211</v>
       </c>
       <c r="F47" t="n">
-        <v>28.22102546691895</v>
+        <v>28.22046661376953</v>
       </c>
       <c r="G47" t="n">
         <v>43863700</v>
@@ -2533,7 +2314,7 @@
         <v>0.142539735824343</v>
       </c>
       <c r="K47" t="n">
-        <v>29.25</v>
+        <v>28.78000068664551</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2543,7 +2324,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n">
+      <c r="A48" s="2" t="n">
         <v>43565</v>
       </c>
       <c r="B48" t="n">
@@ -2559,7 +2340,7 @@
         <v>28.78000068664551</v>
       </c>
       <c r="F48" t="n">
-        <v>27.85326194763184</v>
+        <v>27.85270690917969</v>
       </c>
       <c r="G48" t="n">
         <v>62005200</v>
@@ -2574,7 +2355,7 @@
         <v>0.1615874578082348</v>
       </c>
       <c r="K48" t="n">
-        <v>29.25</v>
+        <v>28.78000068664551</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2584,7 +2365,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n">
+      <c r="A49" s="2" t="n">
         <v>43566</v>
       </c>
       <c r="B49" t="n">
@@ -2600,7 +2381,7 @@
         <v>28</v>
       </c>
       <c r="F49" t="n">
-        <v>27.0983772277832</v>
+        <v>27.09783935546875</v>
       </c>
       <c r="G49" t="n">
         <v>56126400</v>
@@ -2615,7 +2396,7 @@
         <v>0.1596827734084343</v>
       </c>
       <c r="K49" t="n">
-        <v>29.25</v>
+        <v>28.78000068664551</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2625,7 +2406,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n">
+      <c r="A50" s="2" t="n">
         <v>43567</v>
       </c>
       <c r="B50" t="n">
@@ -2641,7 +2422,7 @@
         <v>25.82999992370605</v>
       </c>
       <c r="F50" t="n">
-        <v>24.99825477600098</v>
+        <v>24.99775886535645</v>
       </c>
       <c r="G50" t="n">
         <v>227307600</v>
@@ -2656,7 +2437,7 @@
         <v>0.03095263526553182</v>
       </c>
       <c r="K50" t="n">
-        <v>29.25</v>
+        <v>28.78000068664551</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -2666,7 +2447,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n">
+      <c r="A51" s="2" t="n">
         <v>43570</v>
       </c>
       <c r="B51" t="n">
@@ -2682,7 +2463,7 @@
         <v>25.93000030517578</v>
       </c>
       <c r="F51" t="n">
-        <v>25.09503555297852</v>
+        <v>25.09453582763672</v>
       </c>
       <c r="G51" t="n">
         <v>117567200</v>
@@ -2703,11 +2484,11 @@
         <v>25.93000030517578</v>
       </c>
       <c r="M51" t="n">
-        <v>-640.1850473872781</v>
+        <v>-614.0311291601648</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n">
+      <c r="A52" s="2" t="n">
         <v>43571</v>
       </c>
       <c r="B52" t="n">
@@ -2723,7 +2504,7 @@
         <v>26.71999931335449</v>
       </c>
       <c r="F52" t="n">
-        <v>25.85959625244141</v>
+        <v>25.85908126831055</v>
       </c>
       <c r="G52" t="n">
         <v>95149300</v>
@@ -2738,7 +2519,7 @@
         <v>-0.1157142699710931</v>
       </c>
       <c r="K52" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -2748,7 +2529,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n">
+      <c r="A53" s="2" t="n">
         <v>43572</v>
       </c>
       <c r="B53" t="n">
@@ -2764,7 +2545,7 @@
         <v>26.75</v>
       </c>
       <c r="F53" t="n">
-        <v>25.88862800598145</v>
+        <v>25.88811492919922</v>
       </c>
       <c r="G53" t="n">
         <v>103988400</v>
@@ -2779,7 +2560,7 @@
         <v>-0.1901586017911399</v>
       </c>
       <c r="K53" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -2789,7 +2570,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n">
+      <c r="A54" s="2" t="n">
         <v>43573</v>
       </c>
       <c r="B54" t="n">
@@ -2805,7 +2586,7 @@
         <v>27.60000038146973</v>
       </c>
       <c r="F54" t="n">
-        <v>26.71125793457031</v>
+        <v>26.71072959899902</v>
       </c>
       <c r="G54" t="n">
         <v>100942100</v>
@@ -2820,7 +2601,7 @@
         <v>-0.2560317024352052</v>
       </c>
       <c r="K54" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -2830,7 +2611,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n">
+      <c r="A55" s="2" t="n">
         <v>43577</v>
       </c>
       <c r="B55" t="n">
@@ -2846,7 +2627,7 @@
         <v>27.44000053405762</v>
       </c>
       <c r="F55" t="n">
-        <v>26.55640983581543</v>
+        <v>26.55588150024414</v>
       </c>
       <c r="G55" t="n">
         <v>45321900</v>
@@ -2861,7 +2642,7 @@
         <v>-0.403809471735876</v>
       </c>
       <c r="K55" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -2871,7 +2652,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="n">
+      <c r="A56" s="2" t="n">
         <v>43578</v>
       </c>
       <c r="B56" t="n">
@@ -2887,7 +2668,7 @@
         <v>27.68000030517578</v>
       </c>
       <c r="F56" t="n">
-        <v>26.78868293762207</v>
+        <v>26.78815078735352</v>
       </c>
       <c r="G56" t="n">
         <v>52199500</v>
@@ -2902,7 +2683,7 @@
         <v>-0.6006348322308277</v>
       </c>
       <c r="K56" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -2912,7 +2693,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n">
+      <c r="A57" s="2" t="n">
         <v>43579</v>
       </c>
       <c r="B57" t="n">
@@ -2928,7 +2709,7 @@
         <v>27.60000038146973</v>
       </c>
       <c r="F57" t="n">
-        <v>26.71125793457031</v>
+        <v>26.71072959899902</v>
       </c>
       <c r="G57" t="n">
         <v>57704700</v>
@@ -2943,7 +2724,7 @@
         <v>-0.744126940530446</v>
       </c>
       <c r="K57" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -2953,7 +2734,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="n">
+      <c r="A58" s="2" t="n">
         <v>43580</v>
       </c>
       <c r="B58" t="n">
@@ -2969,7 +2750,7 @@
         <v>27.79999923706055</v>
       </c>
       <c r="F58" t="n">
-        <v>26.90481948852539</v>
+        <v>26.9042854309082</v>
       </c>
       <c r="G58" t="n">
         <v>55201700</v>
@@ -2984,7 +2765,7 @@
         <v>-0.7268254416329505</v>
       </c>
       <c r="K58" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -2994,7 +2775,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n">
+      <c r="A59" s="2" t="n">
         <v>43581</v>
       </c>
       <c r="B59" t="n">
@@ -3010,7 +2791,7 @@
         <v>27.25</v>
       </c>
       <c r="F59" t="n">
-        <v>26.39103507995605</v>
+        <v>26.39051055908203</v>
       </c>
       <c r="G59" t="n">
         <v>52616600</v>
@@ -3025,7 +2806,7 @@
         <v>-0.5647619338262651</v>
       </c>
       <c r="K59" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -3035,7 +2816,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="n">
+      <c r="A60" s="2" t="n">
         <v>43584</v>
       </c>
       <c r="B60" t="n">
@@ -3051,7 +2832,7 @@
         <v>27.3700008392334</v>
       </c>
       <c r="F60" t="n">
-        <v>26.50725364685059</v>
+        <v>26.50672721862793</v>
       </c>
       <c r="G60" t="n">
         <v>27689800</v>
@@ -3066,7 +2847,7 @@
         <v>-0.3719047970241967</v>
       </c>
       <c r="K60" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -3076,7 +2857,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="n">
+      <c r="A61" s="2" t="n">
         <v>43585</v>
       </c>
       <c r="B61" t="n">
@@ -3092,7 +2873,7 @@
         <v>27.11000061035156</v>
       </c>
       <c r="F61" t="n">
-        <v>26.25544738769531</v>
+        <v>26.25492668151855</v>
       </c>
       <c r="G61" t="n">
         <v>39570700</v>
@@ -3107,7 +2888,7 @@
         <v>-0.2833332788376559</v>
       </c>
       <c r="K61" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3117,7 +2898,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="n">
+      <c r="A62" s="2" t="n">
         <v>43587</v>
       </c>
       <c r="B62" t="n">
@@ -3133,7 +2914,7 @@
         <v>26.72999954223633</v>
       </c>
       <c r="F62" t="n">
-        <v>25.88742637634277</v>
+        <v>25.88691139221191</v>
       </c>
       <c r="G62" t="n">
         <v>37820300</v>
@@ -3148,7 +2929,7 @@
         <v>-0.225079339648051</v>
       </c>
       <c r="K62" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -3158,7 +2939,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="n">
+      <c r="A63" s="2" t="n">
         <v>43588</v>
       </c>
       <c r="B63" t="n">
@@ -3174,7 +2955,7 @@
         <v>26.85000038146973</v>
       </c>
       <c r="F63" t="n">
-        <v>26.0036449432373</v>
+        <v>26.00312805175781</v>
       </c>
       <c r="G63" t="n">
         <v>33334800</v>
@@ -3189,7 +2970,7 @@
         <v>-0.2398412189786399</v>
       </c>
       <c r="K63" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3199,7 +2980,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="n">
+      <c r="A64" s="2" t="n">
         <v>43591</v>
       </c>
       <c r="B64" t="n">
@@ -3215,7 +2996,7 @@
         <v>26.77000045776367</v>
       </c>
       <c r="F64" t="n">
-        <v>25.92616653442383</v>
+        <v>25.92565155029297</v>
       </c>
       <c r="G64" t="n">
         <v>31715900</v>
@@ -3230,7 +3011,7 @@
         <v>-0.2776189834352536</v>
       </c>
       <c r="K64" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3240,7 +3021,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="n">
+      <c r="A65" s="2" t="n">
         <v>43592</v>
       </c>
       <c r="B65" t="n">
@@ -3256,7 +3037,7 @@
         <v>26.35000038146973</v>
       </c>
       <c r="F65" t="n">
-        <v>25.51940536499023</v>
+        <v>25.51889991760254</v>
       </c>
       <c r="G65" t="n">
         <v>52454400</v>
@@ -3271,7 +3052,7 @@
         <v>-0.3244444226461738</v>
       </c>
       <c r="K65" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -3281,7 +3062,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="n">
+      <c r="A66" s="2" t="n">
         <v>43593</v>
       </c>
       <c r="B66" t="n">
@@ -3297,7 +3078,7 @@
         <v>27.3700008392334</v>
       </c>
       <c r="F66" t="n">
-        <v>26.50725364685059</v>
+        <v>26.50672721862793</v>
       </c>
       <c r="G66" t="n">
         <v>71780300</v>
@@ -3312,7 +3093,7 @@
         <v>-0.2828570774623351</v>
       </c>
       <c r="K66" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -3322,7 +3103,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="n">
+      <c r="A67" s="2" t="n">
         <v>43594</v>
       </c>
       <c r="B67" t="n">
@@ -3338,7 +3119,7 @@
         <v>26.82999992370605</v>
       </c>
       <c r="F67" t="n">
-        <v>25.98427391052246</v>
+        <v>25.9837589263916</v>
       </c>
       <c r="G67" t="n">
         <v>46663300</v>
@@ -3353,7 +3134,7 @@
         <v>-0.2753966800750227</v>
       </c>
       <c r="K67" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -3363,7 +3144,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="n">
+      <c r="A68" s="2" t="n">
         <v>43595</v>
       </c>
       <c r="B68" t="n">
@@ -3379,7 +3160,7 @@
         <v>26.68000030517578</v>
       </c>
       <c r="F68" t="n">
-        <v>25.83900260925293</v>
+        <v>25.8384895324707</v>
       </c>
       <c r="G68" t="n">
         <v>33336000</v>
@@ -3394,7 +3175,7 @@
         <v>-0.2206347632029697</v>
       </c>
       <c r="K68" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -3404,7 +3185,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="n">
+      <c r="A69" s="2" t="n">
         <v>43598</v>
       </c>
       <c r="B69" t="n">
@@ -3420,7 +3201,7 @@
         <v>25.89999961853027</v>
       </c>
       <c r="F69" t="n">
-        <v>25.08358764648438</v>
+        <v>25.08309173583984</v>
       </c>
       <c r="G69" t="n">
         <v>43146100</v>
@@ -3435,7 +3216,7 @@
         <v>-0.2468253241644973</v>
       </c>
       <c r="K69" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -3445,7 +3226,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="n">
+      <c r="A70" s="2" t="n">
         <v>43599</v>
       </c>
       <c r="B70" t="n">
@@ -3461,7 +3242,7 @@
         <v>26</v>
       </c>
       <c r="F70" t="n">
-        <v>25.1804370880127</v>
+        <v>25.1799373626709</v>
       </c>
       <c r="G70" t="n">
         <v>34968600</v>
@@ -3476,7 +3257,7 @@
         <v>-0.2749206300765756</v>
       </c>
       <c r="K70" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -3486,7 +3267,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="n">
+      <c r="A71" s="2" t="n">
         <v>43600</v>
       </c>
       <c r="B71" t="n">
@@ -3502,7 +3283,7 @@
         <v>25.8799991607666</v>
       </c>
       <c r="F71" t="n">
-        <v>25.06421852111816</v>
+        <v>25.06371879577637</v>
       </c>
       <c r="G71" t="n">
         <v>37053900</v>
@@ -3517,7 +3298,7 @@
         <v>-0.371746032957045</v>
       </c>
       <c r="K71" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -3527,7 +3308,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="n">
+      <c r="A72" s="2" t="n">
         <v>43601</v>
       </c>
       <c r="B72" t="n">
@@ -3543,7 +3324,7 @@
         <v>25.27000045776367</v>
       </c>
       <c r="F72" t="n">
-        <v>24.47344779968262</v>
+        <v>24.47296333312988</v>
       </c>
       <c r="G72" t="n">
         <v>46502200</v>
@@ -3558,7 +3339,7 @@
         <v>-0.5158730158730158</v>
       </c>
       <c r="K72" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -3568,7 +3349,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="n">
+      <c r="A73" s="2" t="n">
         <v>43602</v>
       </c>
       <c r="B73" t="n">
@@ -3584,7 +3365,7 @@
         <v>24.68000030517578</v>
       </c>
       <c r="F73" t="n">
-        <v>23.90204811096191</v>
+        <v>23.90157318115234</v>
       </c>
       <c r="G73" t="n">
         <v>67291200</v>
@@ -3599,7 +3380,7 @@
         <v>-0.6509524451361735</v>
       </c>
       <c r="K73" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -3609,7 +3390,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="n">
+      <c r="A74" s="2" t="n">
         <v>43605</v>
       </c>
       <c r="B74" t="n">
@@ -3625,7 +3406,7 @@
         <v>25.52000045776367</v>
       </c>
       <c r="F74" t="n">
-        <v>24.71556854248047</v>
+        <v>24.71507835388184</v>
       </c>
       <c r="G74" t="n">
         <v>54472000</v>
@@ -3640,7 +3421,7 @@
         <v>-0.6846032521081327</v>
       </c>
       <c r="K74" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -3650,7 +3431,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="n">
+      <c r="A75" s="2" t="n">
         <v>43606</v>
       </c>
       <c r="B75" t="n">
@@ -3666,7 +3447,7 @@
         <v>26.48999977111816</v>
       </c>
       <c r="F75" t="n">
-        <v>25.65499114990234</v>
+        <v>25.65448188781738</v>
       </c>
       <c r="G75" t="n">
         <v>57846700</v>
@@ -3681,7 +3462,7 @@
         <v>-0.729523976643879</v>
       </c>
       <c r="K75" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -3691,7 +3472,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="n">
+      <c r="A76" s="2" t="n">
         <v>43607</v>
       </c>
       <c r="B76" t="n">
@@ -3707,7 +3488,7 @@
         <v>26.29000091552734</v>
       </c>
       <c r="F76" t="n">
-        <v>25.55777740478516</v>
+        <v>25.55727005004883</v>
       </c>
       <c r="G76" t="n">
         <v>48439300</v>
@@ -3722,7 +3503,7 @@
         <v>-0.7347619798448335</v>
       </c>
       <c r="K76" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -3732,7 +3513,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="5" t="n">
+      <c r="A77" s="2" t="n">
         <v>43608</v>
       </c>
       <c r="B77" t="n">
@@ -3748,7 +3529,7 @@
         <v>25.84000015258789</v>
       </c>
       <c r="F77" t="n">
-        <v>25.12030982971191</v>
+        <v>25.11981010437012</v>
       </c>
       <c r="G77" t="n">
         <v>49527400</v>
@@ -3763,7 +3544,7 @@
         <v>-0.7404762752472394</v>
       </c>
       <c r="K77" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -3773,7 +3554,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="5" t="n">
+      <c r="A78" s="2" t="n">
         <v>43609</v>
       </c>
       <c r="B78" t="n">
@@ -3789,7 +3570,7 @@
         <v>26.09000015258789</v>
       </c>
       <c r="F78" t="n">
-        <v>25.36334800720215</v>
+        <v>25.36284446716309</v>
       </c>
       <c r="G78" t="n">
         <v>35915100</v>
@@ -3804,7 +3585,7 @@
         <v>-0.6474603319924981</v>
       </c>
       <c r="K78" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -3814,7 +3595,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="5" t="n">
+      <c r="A79" s="2" t="n">
         <v>43612</v>
       </c>
       <c r="B79" t="n">
@@ -3830,7 +3611,7 @@
         <v>26.23999977111816</v>
       </c>
       <c r="F79" t="n">
-        <v>25.5091667175293</v>
+        <v>25.5086612701416</v>
       </c>
       <c r="G79" t="n">
         <v>33892000</v>
@@ -3845,7 +3626,7 @@
         <v>-0.5465080019027475</v>
       </c>
       <c r="K79" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -3855,7 +3636,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="n">
+      <c r="A80" s="2" t="n">
         <v>43613</v>
       </c>
       <c r="B80" t="n">
@@ -3871,7 +3652,7 @@
         <v>26.79999923706055</v>
       </c>
       <c r="F80" t="n">
-        <v>26.0535717010498</v>
+        <v>26.05305290222168</v>
       </c>
       <c r="G80" t="n">
         <v>60774600</v>
@@ -3886,7 +3667,7 @@
         <v>-0.4228571634443981</v>
       </c>
       <c r="K80" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -3896,7 +3677,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="n">
+      <c r="A81" s="2" t="n">
         <v>43614</v>
       </c>
       <c r="B81" t="n">
@@ -3912,7 +3693,7 @@
         <v>26.5</v>
       </c>
       <c r="F81" t="n">
-        <v>25.76192855834961</v>
+        <v>25.76141738891602</v>
       </c>
       <c r="G81" t="n">
         <v>43124400</v>
@@ -3927,7 +3708,7 @@
         <v>-0.2447619362482953</v>
       </c>
       <c r="K81" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -3937,7 +3718,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="5" t="n">
+      <c r="A82" s="2" t="n">
         <v>43615</v>
       </c>
       <c r="B82" t="n">
@@ -3953,7 +3734,7 @@
         <v>26.14999961853027</v>
       </c>
       <c r="F82" t="n">
-        <v>25.42167663574219</v>
+        <v>25.42117309570312</v>
       </c>
       <c r="G82" t="n">
         <v>71847200</v>
@@ -3968,7 +3749,7 @@
         <v>-0.03571434626503489</v>
       </c>
       <c r="K82" t="n">
-        <v>26.71999931335449</v>
+        <v>25.93000030517578</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -3978,7 +3759,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="5" t="n">
+      <c r="A83" s="2" t="n">
         <v>43616</v>
       </c>
       <c r="B83" t="n">
@@ -3994,7 +3775,7 @@
         <v>25.54999923706055</v>
       </c>
       <c r="F83" t="n">
-        <v>24.8383846282959</v>
+        <v>24.83789253234863</v>
       </c>
       <c r="G83" t="n">
         <v>63137200</v>
@@ -4015,11 +3796,11 @@
         <v>25.54999923706055</v>
       </c>
       <c r="M83" t="n">
-        <v>228.9628397712137</v>
+        <v>73.95630411001513</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="n">
+      <c r="A84" s="2" t="n">
         <v>43619</v>
       </c>
       <c r="B84" t="n">
@@ -4035,7 +3816,7 @@
         <v>25.98999977111816</v>
       </c>
       <c r="F84" t="n">
-        <v>25.2661304473877</v>
+        <v>25.26562881469727</v>
       </c>
       <c r="G84" t="n">
         <v>53470600</v>
@@ -4050,7 +3831,7 @@
         <v>0.009206196618460893</v>
       </c>
       <c r="K84" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -4060,7 +3841,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="5" t="n">
+      <c r="A85" s="2" t="n">
         <v>43620</v>
       </c>
       <c r="B85" t="n">
@@ -4076,7 +3857,7 @@
         <v>26.20000076293945</v>
       </c>
       <c r="F85" t="n">
-        <v>25.47028350830078</v>
+        <v>25.46977806091309</v>
       </c>
       <c r="G85" t="n">
         <v>37331100</v>
@@ -4091,7 +3872,7 @@
         <v>0.02634902227492475</v>
       </c>
       <c r="K85" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -4101,7 +3882,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="5" t="n">
+      <c r="A86" s="2" t="n">
         <v>43621</v>
       </c>
       <c r="B86" t="n">
@@ -4117,7 +3898,7 @@
         <v>25.86000061035156</v>
       </c>
       <c r="F86" t="n">
-        <v>25.1397533416748</v>
+        <v>25.13925552368164</v>
       </c>
       <c r="G86" t="n">
         <v>65282100</v>
@@ -4132,7 +3913,7 @@
         <v>0.05190461779397637</v>
       </c>
       <c r="K86" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -4142,7 +3923,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="5" t="n">
+      <c r="A87" s="2" t="n">
         <v>43622</v>
       </c>
       <c r="B87" t="n">
@@ -4158,7 +3939,7 @@
         <v>26.28000068664551</v>
       </c>
       <c r="F87" t="n">
-        <v>25.54805564880371</v>
+        <v>25.54754829406738</v>
       </c>
       <c r="G87" t="n">
         <v>87836900</v>
@@ -4173,7 +3954,7 @@
         <v>0.1249205574156775</v>
       </c>
       <c r="K87" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -4183,7 +3964,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="5" t="n">
+      <c r="A88" s="2" t="n">
         <v>43623</v>
       </c>
       <c r="B88" t="n">
@@ -4199,7 +3980,7 @@
         <v>26.76000022888184</v>
       </c>
       <c r="F88" t="n">
-        <v>26.01468467712402</v>
+        <v>26.01416778564453</v>
       </c>
       <c r="G88" t="n">
         <v>52235500</v>
@@ -4214,7 +3995,7 @@
         <v>0.1860317048572355</v>
       </c>
       <c r="K88" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -4224,7 +4005,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="n">
+      <c r="A89" s="2" t="n">
         <v>43626</v>
       </c>
       <c r="B89" t="n">
@@ -4240,7 +4021,7 @@
         <v>26.64999961853027</v>
       </c>
       <c r="F89" t="n">
-        <v>25.90775108337402</v>
+        <v>25.9072380065918</v>
       </c>
       <c r="G89" t="n">
         <v>39666800</v>
@@ -4255,7 +4036,7 @@
         <v>0.170793684702069</v>
       </c>
       <c r="K89" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -4265,7 +4046,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="5" t="n">
+      <c r="A90" s="2" t="n">
         <v>43627</v>
       </c>
       <c r="B90" t="n">
@@ -4281,7 +4062,7 @@
         <v>27.15999984741211</v>
       </c>
       <c r="F90" t="n">
-        <v>26.40354537963867</v>
+        <v>26.40302085876465</v>
       </c>
       <c r="G90" t="n">
         <v>52437000</v>
@@ -4296,7 +4077,7 @@
         <v>0.1841269901820581</v>
       </c>
       <c r="K90" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -4306,7 +4087,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="5" t="n">
+      <c r="A91" s="2" t="n">
         <v>43628</v>
       </c>
       <c r="B91" t="n">
@@ -4322,7 +4103,7 @@
         <v>26.85000038146973</v>
       </c>
       <c r="F91" t="n">
-        <v>26.10218048095703</v>
+        <v>26.10166168212891</v>
       </c>
       <c r="G91" t="n">
         <v>43392200</v>
@@ -4337,7 +4118,7 @@
         <v>0.221428644089471</v>
       </c>
       <c r="K91" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -4347,7 +4128,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="5" t="n">
+      <c r="A92" s="2" t="n">
         <v>43629</v>
       </c>
       <c r="B92" t="n">
@@ -4363,7 +4144,7 @@
         <v>27.18000030517578</v>
       </c>
       <c r="F92" t="n">
-        <v>26.42298889160156</v>
+        <v>26.42246437072754</v>
       </c>
       <c r="G92" t="n">
         <v>48981600</v>
@@ -4378,7 +4159,7 @@
         <v>0.3406350574796164</v>
       </c>
       <c r="K92" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -4388,7 +4169,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="5" t="n">
+      <c r="A93" s="2" t="n">
         <v>43630</v>
       </c>
       <c r="B93" t="n">
@@ -4404,7 +4185,7 @@
         <v>27.05999946594238</v>
       </c>
       <c r="F93" t="n">
-        <v>26.30633163452148</v>
+        <v>26.30580902099609</v>
       </c>
       <c r="G93" t="n">
         <v>42802400</v>
@@ -4419,7 +4200,7 @@
         <v>0.3742858644515756</v>
       </c>
       <c r="K93" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -4429,7 +4210,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="5" t="n">
+      <c r="A94" s="2" t="n">
         <v>43633</v>
       </c>
       <c r="B94" t="n">
@@ -4445,7 +4226,7 @@
         <v>27.11000061035156</v>
       </c>
       <c r="F94" t="n">
-        <v>26.35493850708008</v>
+        <v>26.35441589355469</v>
       </c>
       <c r="G94" t="n">
         <v>49290000</v>
@@ -4460,7 +4241,7 @@
         <v>0.3596826583620114</v>
       </c>
       <c r="K94" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -4470,7 +4251,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="5" t="n">
+      <c r="A95" s="2" t="n">
         <v>43634</v>
       </c>
       <c r="B95" t="n">
@@ -4486,7 +4267,7 @@
         <v>27.45000076293945</v>
       </c>
       <c r="F95" t="n">
-        <v>26.68547058105469</v>
+        <v>26.68494033813477</v>
       </c>
       <c r="G95" t="n">
         <v>31332800</v>
@@ -4501,7 +4282,7 @@
         <v>0.4444445655459432</v>
       </c>
       <c r="K95" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -4511,7 +4292,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="5" t="n">
+      <c r="A96" s="2" t="n">
         <v>43635</v>
       </c>
       <c r="B96" t="n">
@@ -4527,7 +4308,7 @@
         <v>27.52000045776367</v>
       </c>
       <c r="F96" t="n">
-        <v>26.75351905822754</v>
+        <v>26.75298881530762</v>
       </c>
       <c r="G96" t="n">
         <v>33286300</v>
@@ -4542,7 +4323,7 @@
         <v>0.5331746661473815</v>
       </c>
       <c r="K96" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -4552,7 +4333,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="5" t="n">
+      <c r="A97" s="2" t="n">
         <v>43637</v>
       </c>
       <c r="B97" t="n">
@@ -4568,7 +4349,7 @@
         <v>28.28000068664551</v>
       </c>
       <c r="F97" t="n">
-        <v>27.49235153198242</v>
+        <v>27.49180603027344</v>
       </c>
       <c r="G97" t="n">
         <v>58424700</v>
@@ -4583,7 +4364,7 @@
         <v>0.6073017120361328</v>
       </c>
       <c r="K97" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -4593,7 +4374,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="5" t="n">
+      <c r="A98" s="2" t="n">
         <v>43640</v>
       </c>
       <c r="B98" t="n">
@@ -4609,7 +4390,7 @@
         <v>28.25</v>
       </c>
       <c r="F98" t="n">
-        <v>27.46318626403809</v>
+        <v>27.4626407623291</v>
       </c>
       <c r="G98" t="n">
         <v>27365000</v>
@@ -4624,7 +4405,7 @@
         <v>0.6703176347036219</v>
       </c>
       <c r="K98" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -4634,7 +4415,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="5" t="n">
+      <c r="A99" s="2" t="n">
         <v>43641</v>
       </c>
       <c r="B99" t="n">
@@ -4650,7 +4431,7 @@
         <v>27.51000022888184</v>
       </c>
       <c r="F99" t="n">
-        <v>26.74379730224609</v>
+        <v>26.74326705932617</v>
       </c>
       <c r="G99" t="n">
         <v>56472100</v>
@@ -4665,7 +4446,7 @@
         <v>0.6415875147259413</v>
       </c>
       <c r="K99" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -4675,7 +4456,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="5" t="n">
+      <c r="A100" s="2" t="n">
         <v>43642</v>
       </c>
       <c r="B100" t="n">
@@ -4691,7 +4472,7 @@
         <v>27.67000007629395</v>
       </c>
       <c r="F100" t="n">
-        <v>26.89933967590332</v>
+        <v>26.89880752563477</v>
       </c>
       <c r="G100" t="n">
         <v>48901500</v>
@@ -4706,7 +4487,7 @@
         <v>0.6646033393012125</v>
       </c>
       <c r="K100" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -4716,7 +4497,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="n">
+      <c r="A101" s="2" t="n">
         <v>43643</v>
       </c>
       <c r="B101" t="n">
@@ -4732,7 +4513,7 @@
         <v>27.22999954223633</v>
       </c>
       <c r="F101" t="n">
-        <v>26.47159767150879</v>
+        <v>26.47107315063477</v>
       </c>
       <c r="G101" t="n">
         <v>55219200</v>
@@ -4747,7 +4528,7 @@
         <v>0.6496826050773521</v>
       </c>
       <c r="K101" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -4757,7 +4538,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="n">
+      <c r="A102" s="2" t="n">
         <v>43644</v>
       </c>
       <c r="B102" t="n">
@@ -4773,7 +4554,7 @@
         <v>27.40999984741211</v>
       </c>
       <c r="F102" t="n">
-        <v>26.64658355712891</v>
+        <v>26.64605522155762</v>
       </c>
       <c r="G102" t="n">
         <v>40262000</v>
@@ -4788,7 +4569,7 @@
         <v>0.6452382102845213</v>
       </c>
       <c r="K102" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -4798,7 +4579,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="5" t="n">
+      <c r="A103" s="2" t="n">
         <v>43647</v>
       </c>
       <c r="B103" t="n">
@@ -4814,7 +4595,7 @@
         <v>27.26000022888184</v>
       </c>
       <c r="F103" t="n">
-        <v>26.50076103210449</v>
+        <v>26.50023460388184</v>
       </c>
       <c r="G103" t="n">
         <v>46759100</v>
@@ -4829,7 +4610,7 @@
         <v>0.6090476626441585</v>
       </c>
       <c r="K103" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -4839,7 +4620,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="5" t="n">
+      <c r="A104" s="2" t="n">
         <v>43648</v>
       </c>
       <c r="B104" t="n">
@@ -4855,7 +4636,7 @@
         <v>26.81999969482422</v>
       </c>
       <c r="F104" t="n">
-        <v>26.0730152130127</v>
+        <v>26.07249641418457</v>
       </c>
       <c r="G104" t="n">
         <v>57954200</v>
@@ -4870,7 +4651,7 @@
         <v>0.478571331690226</v>
       </c>
       <c r="K104" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -4880,7 +4661,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="5" t="n">
+      <c r="A105" s="2" t="n">
         <v>43649</v>
       </c>
       <c r="B105" t="n">
@@ -4896,7 +4677,7 @@
         <v>27.18000030517578</v>
       </c>
       <c r="F105" t="n">
-        <v>26.42298889160156</v>
+        <v>26.42246437072754</v>
       </c>
       <c r="G105" t="n">
         <v>29291800</v>
@@ -4911,7 +4692,7 @@
         <v>0.3841268448602584</v>
       </c>
       <c r="K105" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -4921,7 +4702,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="5" t="n">
+      <c r="A106" s="2" t="n">
         <v>43650</v>
       </c>
       <c r="B106" t="n">
@@ -4937,7 +4718,7 @@
         <v>27.38999938964844</v>
       </c>
       <c r="F106" t="n">
-        <v>26.62713813781738</v>
+        <v>26.62660980224609</v>
       </c>
       <c r="G106" t="n">
         <v>28577400</v>
@@ -4952,7 +4733,7 @@
         <v>0.2285712105887256</v>
       </c>
       <c r="K106" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -4962,7 +4743,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="5" t="n">
+      <c r="A107" s="2" t="n">
         <v>43651</v>
       </c>
       <c r="B107" t="n">
@@ -4978,7 +4759,7 @@
         <v>27.39999961853027</v>
       </c>
       <c r="F107" t="n">
-        <v>26.63685989379883</v>
+        <v>26.63633155822754</v>
       </c>
       <c r="G107" t="n">
         <v>27414700</v>
@@ -4993,7 +4774,7 @@
         <v>0.06079343765501122</v>
       </c>
       <c r="K107" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -5003,7 +4784,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="5" t="n">
+      <c r="A108" s="2" t="n">
         <v>43654</v>
       </c>
       <c r="B108" t="n">
@@ -5019,7 +4800,7 @@
         <v>27.64999961853027</v>
       </c>
       <c r="F108" t="n">
-        <v>26.87989807128906</v>
+        <v>26.87936592102051</v>
       </c>
       <c r="G108" t="n">
         <v>25318200</v>
@@ -5034,7 +4815,7 @@
         <v>0.01111088101826141</v>
       </c>
       <c r="K108" t="n">
-        <v>25.98999977111816</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -5044,7 +4825,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="5" t="n">
+      <c r="A109" s="2" t="n">
         <v>43656</v>
       </c>
       <c r="B109" t="n">
@@ -5060,7 +4841,7 @@
         <v>28.06999969482422</v>
       </c>
       <c r="F109" t="n">
-        <v>27.28820037841797</v>
+        <v>27.28765869140625</v>
       </c>
       <c r="G109" t="n">
         <v>50715800</v>
@@ -5081,11 +4862,11 @@
         <v>28.06999969482422</v>
       </c>
       <c r="M109" t="n">
-        <v>370.5023060776132</v>
+        <v>439.7762563615771</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="5" t="n">
+      <c r="A110" s="2" t="n">
         <v>43657</v>
       </c>
       <c r="B110" t="n">
@@ -5101,7 +4882,7 @@
         <v>28.39999961853027</v>
       </c>
       <c r="F110" t="n">
-        <v>27.6090087890625</v>
+        <v>27.60846138000488</v>
       </c>
       <c r="G110" t="n">
         <v>48206900</v>
@@ -5119,14 +4900,14 @@
         <v>28.39999961853027</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>-62.03062296104108</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="5" t="n">
+      <c r="A111" s="2" t="n">
         <v>43658</v>
       </c>
       <c r="B111" t="n">
@@ -5142,7 +4923,7 @@
         <v>28.53000068664551</v>
       </c>
       <c r="F111" t="n">
-        <v>27.73538970947266</v>
+        <v>27.73483848571777</v>
       </c>
       <c r="G111" t="n">
         <v>40908900</v>
@@ -5167,7 +4948,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="5" t="n">
+      <c r="A112" s="2" t="n">
         <v>43661</v>
       </c>
       <c r="B112" t="n">
@@ -5183,7 +4964,7 @@
         <v>28.18000030517578</v>
       </c>
       <c r="F112" t="n">
-        <v>27.39513778686523</v>
+        <v>27.39459419250488</v>
       </c>
       <c r="G112" t="n">
         <v>36592400</v>
@@ -5208,7 +4989,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="5" t="n">
+      <c r="A113" s="2" t="n">
         <v>43662</v>
       </c>
       <c r="B113" t="n">
@@ -5224,7 +5005,7 @@
         <v>27.82999992370605</v>
       </c>
       <c r="F113" t="n">
-        <v>27.05488395690918</v>
+        <v>27.05434799194336</v>
       </c>
       <c r="G113" t="n">
         <v>54789300</v>
@@ -5249,7 +5030,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="5" t="n">
+      <c r="A114" s="2" t="n">
         <v>43663</v>
       </c>
       <c r="B114" t="n">
@@ -5265,7 +5046,7 @@
         <v>27.68000030517578</v>
       </c>
       <c r="F114" t="n">
-        <v>26.9090633392334</v>
+        <v>26.90852737426758</v>
       </c>
       <c r="G114" t="n">
         <v>28923500</v>
@@ -5290,7 +5071,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="5" t="n">
+      <c r="A115" s="2" t="n">
         <v>43664</v>
       </c>
       <c r="B115" t="n">
@@ -5306,7 +5087,7 @@
         <v>27.51000022888184</v>
       </c>
       <c r="F115" t="n">
-        <v>26.74379730224609</v>
+        <v>26.74326705932617</v>
       </c>
       <c r="G115" t="n">
         <v>35830700</v>
@@ -5331,7 +5112,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="5" t="n">
+      <c r="A116" s="2" t="n">
         <v>43665</v>
       </c>
       <c r="B116" t="n">
@@ -5347,7 +5128,7 @@
         <v>27.44000053405762</v>
       </c>
       <c r="F116" t="n">
-        <v>26.67574882507324</v>
+        <v>26.67521858215332</v>
       </c>
       <c r="G116" t="n">
         <v>28418900</v>
@@ -5372,7 +5153,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="5" t="n">
+      <c r="A117" s="2" t="n">
         <v>43668</v>
       </c>
       <c r="B117" t="n">
@@ -5388,7 +5169,7 @@
         <v>27.48999977111816</v>
       </c>
       <c r="F117" t="n">
-        <v>26.7243537902832</v>
+        <v>26.72382354736328</v>
       </c>
       <c r="G117" t="n">
         <v>22304400</v>
@@ -5413,7 +5194,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="5" t="n">
+      <c r="A118" s="2" t="n">
         <v>43669</v>
       </c>
       <c r="B118" t="n">
@@ -5429,7 +5210,7 @@
         <v>27.52000045776367</v>
       </c>
       <c r="F118" t="n">
-        <v>26.75351905822754</v>
+        <v>26.75298881530762</v>
       </c>
       <c r="G118" t="n">
         <v>21124400</v>
@@ -5454,7 +5235,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="5" t="n">
+      <c r="A119" s="2" t="n">
         <v>43670</v>
       </c>
       <c r="B119" t="n">
@@ -5470,7 +5251,7 @@
         <v>27.35000038146973</v>
       </c>
       <c r="F119" t="n">
-        <v>26.58825492858887</v>
+        <v>26.58772468566895</v>
       </c>
       <c r="G119" t="n">
         <v>27939600</v>
@@ -5495,7 +5276,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="5" t="n">
+      <c r="A120" s="2" t="n">
         <v>43671</v>
       </c>
       <c r="B120" t="n">
@@ -5511,7 +5292,7 @@
         <v>26.88999938964844</v>
       </c>
       <c r="F120" t="n">
-        <v>26.14106559753418</v>
+        <v>26.14054679870605</v>
       </c>
       <c r="G120" t="n">
         <v>26892300</v>
@@ -5532,11 +5313,11 @@
         <v>26.88999938964844</v>
       </c>
       <c r="M120" t="n">
-        <v>-280.7735706872356</v>
+        <v>-303.2593104044915</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="5" t="n">
+      <c r="A121" s="2" t="n">
         <v>43672</v>
       </c>
       <c r="B121" t="n">
@@ -5552,7 +5333,7 @@
         <v>26.13999938964844</v>
       </c>
       <c r="F121" t="n">
-        <v>25.41195487976074</v>
+        <v>25.41144943237305</v>
       </c>
       <c r="G121" t="n">
         <v>75644000</v>
@@ -5567,7 +5348,7 @@
         <v>-0.1771427638947003</v>
       </c>
       <c r="K121" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L121" t="n">
         <v>0</v>
@@ -5577,7 +5358,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="5" t="n">
+      <c r="A122" s="2" t="n">
         <v>43675</v>
       </c>
       <c r="B122" t="n">
@@ -5593,7 +5374,7 @@
         <v>26.3799991607666</v>
       </c>
       <c r="F122" t="n">
-        <v>25.64526748657227</v>
+        <v>25.64475631713867</v>
       </c>
       <c r="G122" t="n">
         <v>26493300</v>
@@ -5608,7 +5389,7 @@
         <v>-0.2977777511354489</v>
       </c>
       <c r="K122" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
@@ -5618,7 +5399,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="5" t="n">
+      <c r="A123" s="2" t="n">
         <v>43676</v>
       </c>
       <c r="B123" t="n">
@@ -5634,7 +5415,7 @@
         <v>26.23999977111816</v>
       </c>
       <c r="F123" t="n">
-        <v>25.5091667175293</v>
+        <v>25.5086612701416</v>
       </c>
       <c r="G123" t="n">
         <v>38201600</v>
@@ -5649,7 +5430,7 @@
         <v>-0.4020635211278503</v>
       </c>
       <c r="K123" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
@@ -5659,7 +5440,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="5" t="n">
+      <c r="A124" s="2" t="n">
         <v>43677</v>
       </c>
       <c r="B124" t="n">
@@ -5675,7 +5456,7 @@
         <v>26.07999992370605</v>
       </c>
       <c r="F124" t="n">
-        <v>25.3536262512207</v>
+        <v>25.35312271118164</v>
       </c>
       <c r="G124" t="n">
         <v>39890200</v>
@@ -5690,7 +5471,7 @@
         <v>-0.5047619532025038</v>
       </c>
       <c r="K124" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
@@ -5700,7 +5481,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="5" t="n">
+      <c r="A125" s="2" t="n">
         <v>43678</v>
       </c>
       <c r="B125" t="n">
@@ -5716,7 +5497,7 @@
         <v>26.25</v>
       </c>
       <c r="F125" t="n">
-        <v>25.51889038085938</v>
+        <v>25.51838302612305</v>
       </c>
       <c r="G125" t="n">
         <v>91345800</v>
@@ -5731,7 +5512,7 @@
         <v>-0.6098413921537862</v>
       </c>
       <c r="K125" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -5741,7 +5522,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="5" t="n">
+      <c r="A126" s="2" t="n">
         <v>43679</v>
       </c>
       <c r="B126" t="n">
@@ -5757,7 +5538,7 @@
         <v>26.52000045776367</v>
       </c>
       <c r="F126" t="n">
-        <v>25.7813720703125</v>
+        <v>25.78086090087891</v>
       </c>
       <c r="G126" t="n">
         <v>64112900</v>
@@ -5772,7 +5553,7 @@
         <v>-0.6861905294751338</v>
       </c>
       <c r="K126" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -5782,7 +5563,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="5" t="n">
+      <c r="A127" s="2" t="n">
         <v>43682</v>
       </c>
       <c r="B127" t="n">
@@ -5798,7 +5579,7 @@
         <v>25.54999923706055</v>
       </c>
       <c r="F127" t="n">
-        <v>24.8383846282959</v>
+        <v>24.83789253234863</v>
       </c>
       <c r="G127" t="n">
         <v>48277000</v>
@@ -5813,7 +5594,7 @@
         <v>-0.8174604991125669</v>
       </c>
       <c r="K127" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -5823,7 +5604,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="5" t="n">
+      <c r="A128" s="2" t="n">
         <v>43683</v>
       </c>
       <c r="B128" t="n">
@@ -5839,7 +5620,7 @@
         <v>25.8799991607666</v>
       </c>
       <c r="F128" t="n">
-        <v>25.15919494628906</v>
+        <v>25.15869522094727</v>
       </c>
       <c r="G128" t="n">
         <v>44208100</v>
@@ -5854,7 +5635,7 @@
         <v>-0.9084129939003596</v>
       </c>
       <c r="K128" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
@@ -5864,7 +5645,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="5" t="n">
+      <c r="A129" s="2" t="n">
         <v>43684</v>
       </c>
       <c r="B129" t="n">
@@ -5880,7 +5661,7 @@
         <v>25.60000038146973</v>
       </c>
       <c r="F129" t="n">
-        <v>24.88699340820312</v>
+        <v>24.88649940490723</v>
       </c>
       <c r="G129" t="n">
         <v>67698500</v>
@@ -5895,7 +5676,7 @@
         <v>-0.9541272057427292</v>
       </c>
       <c r="K129" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
@@ -5905,7 +5686,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="5" t="n">
+      <c r="A130" s="2" t="n">
         <v>43685</v>
       </c>
       <c r="B130" t="n">
@@ -5921,7 +5702,7 @@
         <v>26.35000038146973</v>
       </c>
       <c r="F130" t="n">
-        <v>25.6161060333252</v>
+        <v>25.6156005859375</v>
       </c>
       <c r="G130" t="n">
         <v>50256700</v>
@@ -5936,7 +5717,7 @@
         <v>-0.8488890329996757</v>
       </c>
       <c r="K130" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
@@ -5946,7 +5727,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="5" t="n">
+      <c r="A131" s="2" t="n">
         <v>43686</v>
       </c>
       <c r="B131" t="n">
@@ -5962,7 +5743,7 @@
         <v>26.28000068664551</v>
       </c>
       <c r="F131" t="n">
-        <v>25.54805564880371</v>
+        <v>25.54754829406738</v>
       </c>
       <c r="G131" t="n">
         <v>36641500</v>
@@ -5977,7 +5758,7 @@
         <v>-0.7590476444789367</v>
       </c>
       <c r="K131" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L131" t="n">
         <v>0</v>
@@ -5987,7 +5768,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="5" t="n">
+      <c r="A132" s="2" t="n">
         <v>43689</v>
       </c>
       <c r="B132" t="n">
@@ -6003,7 +5784,7 @@
         <v>25.64999961853027</v>
       </c>
       <c r="F132" t="n">
-        <v>24.93560028076172</v>
+        <v>24.93510627746582</v>
       </c>
       <c r="G132" t="n">
         <v>36122000</v>
@@ -6018,7 +5799,7 @@
         <v>-0.6874603089832121</v>
       </c>
       <c r="K132" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L132" t="n">
         <v>0</v>
@@ -6028,7 +5809,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="5" t="n">
+      <c r="A133" s="2" t="n">
         <v>43690</v>
       </c>
       <c r="B133" t="n">
@@ -6044,7 +5825,7 @@
         <v>25.79000091552734</v>
       </c>
       <c r="F133" t="n">
-        <v>25.26873016357422</v>
+        <v>25.26822853088379</v>
       </c>
       <c r="G133" t="n">
         <v>45330500</v>
@@ -6059,7 +5840,7 @@
         <v>-0.6058729262579057</v>
       </c>
       <c r="K133" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
@@ -6069,7 +5850,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="5" t="n">
+      <c r="A134" s="2" t="n">
         <v>43691</v>
       </c>
       <c r="B134" t="n">
@@ -6085,7 +5866,7 @@
         <v>24.92000007629395</v>
       </c>
       <c r="F134" t="n">
-        <v>24.41631317138672</v>
+        <v>24.41582870483398</v>
       </c>
       <c r="G134" t="n">
         <v>54401100</v>
@@ -6100,7 +5881,7 @@
         <v>-0.6150792742532403</v>
       </c>
       <c r="K134" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
@@ -6110,7 +5891,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="5" t="n">
+      <c r="A135" s="2" t="n">
         <v>43692</v>
       </c>
       <c r="B135" t="n">
@@ -6126,7 +5907,7 @@
         <v>24.22999954223633</v>
       </c>
       <c r="F135" t="n">
-        <v>23.74025917053223</v>
+        <v>23.73978996276855</v>
       </c>
       <c r="G135" t="n">
         <v>53894500</v>
@@ -6141,7 +5922,7 @@
         <v>-0.7052380698067822</v>
       </c>
       <c r="K135" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L135" t="n">
         <v>0</v>
@@ -6151,7 +5932,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="5" t="n">
+      <c r="A136" s="2" t="n">
         <v>43693</v>
       </c>
       <c r="B136" t="n">
@@ -6167,7 +5948,7 @@
         <v>23.90999984741211</v>
       </c>
       <c r="F136" t="n">
-        <v>23.42672729492188</v>
+        <v>23.4262638092041</v>
       </c>
       <c r="G136" t="n">
         <v>56782000</v>
@@ -6182,7 +5963,7 @@
         <v>-0.7160316346183642</v>
       </c>
       <c r="K136" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
@@ -6192,7 +5973,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="5" t="n">
+      <c r="A137" s="2" t="n">
         <v>43696</v>
       </c>
       <c r="B137" t="n">
@@ -6208,7 +5989,7 @@
         <v>24.03000068664551</v>
       </c>
       <c r="F137" t="n">
-        <v>23.54430198669434</v>
+        <v>23.54383659362793</v>
       </c>
       <c r="G137" t="n">
         <v>50699300</v>
@@ -6223,7 +6004,7 @@
         <v>-0.759206075516957</v>
       </c>
       <c r="K137" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
@@ -6233,7 +6014,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="5" t="n">
+      <c r="A138" s="2" t="n">
         <v>43697</v>
       </c>
       <c r="B138" t="n">
@@ -6249,7 +6030,7 @@
         <v>24.02000045776367</v>
       </c>
       <c r="F138" t="n">
-        <v>23.53450202941895</v>
+        <v>23.53403663635254</v>
       </c>
       <c r="G138" t="n">
         <v>37141700</v>
@@ -6264,7 +6045,7 @@
         <v>-0.7695235600547186</v>
       </c>
       <c r="K138" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -6274,7 +6055,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="5" t="n">
+      <c r="A139" s="2" t="n">
         <v>43698</v>
       </c>
       <c r="B139" t="n">
@@ -6290,7 +6071,7 @@
         <v>25.45000076293945</v>
       </c>
       <c r="F139" t="n">
-        <v>24.93560028076172</v>
+        <v>24.93510627746582</v>
       </c>
       <c r="G139" t="n">
         <v>87840800</v>
@@ -6305,7 +6086,7 @@
         <v>-0.7709521036299449</v>
       </c>
       <c r="K139" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L139" t="n">
         <v>0</v>
@@ -6315,7 +6096,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="5" t="n">
+      <c r="A140" s="2" t="n">
         <v>43699</v>
       </c>
       <c r="B140" t="n">
@@ -6331,7 +6112,7 @@
         <v>25.21999931335449</v>
       </c>
       <c r="F140" t="n">
-        <v>24.71024894714355</v>
+        <v>24.70975875854492</v>
       </c>
       <c r="G140" t="n">
         <v>40808800</v>
@@ -6346,7 +6127,7 @@
         <v>-0.7873014117044121</v>
       </c>
       <c r="K140" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L140" t="n">
         <v>0</v>
@@ -6356,7 +6137,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="5" t="n">
+      <c r="A141" s="2" t="n">
         <v>43700</v>
       </c>
       <c r="B141" t="n">
@@ -6372,7 +6153,7 @@
         <v>24.28000068664551</v>
       </c>
       <c r="F141" t="n">
-        <v>23.78924942016602</v>
+        <v>23.78877639770508</v>
       </c>
       <c r="G141" t="n">
         <v>58032300</v>
@@ -6387,7 +6168,7 @@
         <v>-0.8152378627232117</v>
       </c>
       <c r="K141" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -6397,7 +6178,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="5" t="n">
+      <c r="A142" s="2" t="n">
         <v>43703</v>
       </c>
       <c r="B142" t="n">
@@ -6413,7 +6194,7 @@
         <v>23.95999908447266</v>
       </c>
       <c r="F142" t="n">
-        <v>23.47571563720703</v>
+        <v>23.47524833679199</v>
       </c>
       <c r="G142" t="n">
         <v>39688800</v>
@@ -6428,7 +6209,7 @@
         <v>-0.9147618611653634</v>
       </c>
       <c r="K142" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L142" t="n">
         <v>0</v>
@@ -6438,7 +6219,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="5" t="n">
+      <c r="A143" s="2" t="n">
         <v>43704</v>
       </c>
       <c r="B143" t="n">
@@ -6454,7 +6235,7 @@
         <v>24.34000015258789</v>
       </c>
       <c r="F143" t="n">
-        <v>23.84803581237793</v>
+        <v>23.84756278991699</v>
       </c>
       <c r="G143" t="n">
         <v>70475200</v>
@@ -6469,7 +6250,7 @@
         <v>-0.8820634872194297</v>
       </c>
       <c r="K143" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L143" t="n">
         <v>0</v>
@@ -6479,7 +6260,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="5" t="n">
+      <c r="A144" s="2" t="n">
         <v>43705</v>
       </c>
       <c r="B144" t="n">
@@ -6495,7 +6276,7 @@
         <v>24.59000015258789</v>
       </c>
       <c r="F144" t="n">
-        <v>24.09298133850098</v>
+        <v>24.09250640869141</v>
       </c>
       <c r="G144" t="n">
         <v>41981500</v>
@@ -6510,7 +6291,7 @@
         <v>-0.763492008996387</v>
       </c>
       <c r="K144" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L144" t="n">
         <v>0</v>
@@ -6520,7 +6301,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="5" t="n">
+      <c r="A145" s="2" t="n">
         <v>43706</v>
       </c>
       <c r="B145" t="n">
@@ -6536,7 +6317,7 @@
         <v>25.5</v>
       </c>
       <c r="F145" t="n">
-        <v>24.98459053039551</v>
+        <v>24.98409271240234</v>
       </c>
       <c r="G145" t="n">
         <v>61008800</v>
@@ -6551,7 +6332,7 @@
         <v>-0.5592062813895069</v>
       </c>
       <c r="K145" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -6561,7 +6342,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="5" t="n">
+      <c r="A146" s="2" t="n">
         <v>43707</v>
       </c>
       <c r="B146" t="n">
@@ -6577,7 +6358,7 @@
         <v>25.5</v>
       </c>
       <c r="F146" t="n">
-        <v>24.98459053039551</v>
+        <v>24.98409271240234</v>
       </c>
       <c r="G146" t="n">
         <v>54958200</v>
@@ -6592,7 +6373,7 @@
         <v>-0.3601587386358354</v>
       </c>
       <c r="K146" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L146" t="n">
         <v>0</v>
@@ -6602,7 +6383,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="5" t="n">
+      <c r="A147" s="2" t="n">
         <v>43710</v>
       </c>
       <c r="B147" t="n">
@@ -6618,7 +6399,7 @@
         <v>25.29999923706055</v>
       </c>
       <c r="F147" t="n">
-        <v>24.78863334655762</v>
+        <v>24.78813934326172</v>
       </c>
       <c r="G147" t="n">
         <v>19049900</v>
@@ -6633,7 +6414,7 @@
         <v>-0.1598413558233354</v>
       </c>
       <c r="K147" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
@@ -6643,7 +6424,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="5" t="n">
+      <c r="A148" s="2" t="n">
         <v>43711</v>
       </c>
       <c r="B148" t="n">
@@ -6659,7 +6440,7 @@
         <v>25.60000038146973</v>
       </c>
       <c r="F148" t="n">
-        <v>25.08256912231445</v>
+        <v>25.08206939697266</v>
       </c>
       <c r="G148" t="n">
         <v>47829600</v>
@@ -6674,7 +6455,7 @@
         <v>-0.1455557384188211</v>
       </c>
       <c r="K148" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L148" t="n">
         <v>0</v>
@@ -6684,7 +6465,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="5" t="n">
+      <c r="A149" s="2" t="n">
         <v>43712</v>
       </c>
       <c r="B149" t="n">
@@ -6700,7 +6481,7 @@
         <v>26.26000022888184</v>
       </c>
       <c r="F149" t="n">
-        <v>25.72922897338867</v>
+        <v>25.72871780395508</v>
       </c>
       <c r="G149" t="n">
         <v>56179000</v>
@@ -6715,7 +6496,7 @@
         <v>-0.04809537009587572</v>
       </c>
       <c r="K149" t="n">
-        <v>26.13999938964844</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="L149" t="n">
         <v>0</v>
@@ -6725,7 +6506,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="5" t="n">
+      <c r="A150" s="2" t="n">
         <v>43713</v>
       </c>
       <c r="B150" t="n">
@@ -6741,7 +6522,7 @@
         <v>26.38999938964844</v>
       </c>
       <c r="F150" t="n">
-        <v>25.85659980773926</v>
+        <v>25.8560848236084</v>
       </c>
       <c r="G150" t="n">
         <v>48586800</v>
@@ -6762,11 +6543,11 @@
         <v>26.38999938964844</v>
       </c>
       <c r="M150" t="n">
-        <v>-47.36642777226879</v>
+        <v>96.57380824718956</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="5" t="n">
+      <c r="A151" s="2" t="n">
         <v>43714</v>
       </c>
       <c r="B151" t="n">
@@ -6782,7 +6563,7 @@
         <v>26.52000045776367</v>
       </c>
       <c r="F151" t="n">
-        <v>25.98397445678711</v>
+        <v>25.98345947265625</v>
       </c>
       <c r="G151" t="n">
         <v>48502200</v>
@@ -6797,7 +6578,7 @@
         <v>0.4250792851523748</v>
       </c>
       <c r="K151" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L151" t="n">
         <v>0</v>
@@ -6807,7 +6588,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="5" t="n">
+      <c r="A152" s="2" t="n">
         <v>43717</v>
       </c>
       <c r="B152" t="n">
@@ -6823,7 +6604,7 @@
         <v>26.93000030517578</v>
       </c>
       <c r="F152" t="n">
-        <v>26.38568687438965</v>
+        <v>26.38516426086426</v>
       </c>
       <c r="G152" t="n">
         <v>37303000</v>
@@ -6838,7 +6619,7 @@
         <v>0.6819047170972077</v>
       </c>
       <c r="K152" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L152" t="n">
         <v>0</v>
@@ -6848,7 +6629,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="5" t="n">
+      <c r="A153" s="2" t="n">
         <v>43718</v>
       </c>
       <c r="B153" t="n">
@@ -6864,7 +6645,7 @@
         <v>27.10000038146973</v>
       </c>
       <c r="F153" t="n">
-        <v>26.55224990844727</v>
+        <v>26.55172348022461</v>
       </c>
       <c r="G153" t="n">
         <v>44109400</v>
@@ -6879,7 +6660,7 @@
         <v>0.891745976039342</v>
       </c>
       <c r="K153" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L153" t="n">
         <v>0</v>
@@ -6889,7 +6670,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="5" t="n">
+      <c r="A154" s="2" t="n">
         <v>43719</v>
       </c>
       <c r="B154" t="n">
@@ -6905,7 +6686,7 @@
         <v>26.8700008392334</v>
       </c>
       <c r="F154" t="n">
-        <v>26.32690048217773</v>
+        <v>26.32637786865234</v>
       </c>
       <c r="G154" t="n">
         <v>51540400</v>
@@ -6920,7 +6701,7 @@
         <v>0.9925397237141915</v>
       </c>
       <c r="K154" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L154" t="n">
         <v>0</v>
@@ -6930,7 +6711,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="5" t="n">
+      <c r="A155" s="2" t="n">
         <v>43720</v>
       </c>
       <c r="B155" t="n">
@@ -6946,7 +6727,7 @@
         <v>27.05999946594238</v>
       </c>
       <c r="F155" t="n">
-        <v>26.51305961608887</v>
+        <v>26.51253318786621</v>
       </c>
       <c r="G155" t="n">
         <v>41028300</v>
@@ -6961,7 +6742,7 @@
         <v>1.063968264867391</v>
       </c>
       <c r="K155" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L155" t="n">
         <v>0</v>
@@ -6971,7 +6752,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="5" t="n">
+      <c r="A156" s="2" t="n">
         <v>43721</v>
       </c>
       <c r="B156" t="n">
@@ -6987,7 +6768,7 @@
         <v>26.8799991607666</v>
       </c>
       <c r="F156" t="n">
-        <v>26.33669662475586</v>
+        <v>26.33617401123047</v>
       </c>
       <c r="G156" t="n">
         <v>24709400</v>
@@ -7002,7 +6783,7 @@
         <v>1.113333353920588</v>
       </c>
       <c r="K156" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L156" t="n">
         <v>0</v>
@@ -7012,7 +6793,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="5" t="n">
+      <c r="A157" s="2" t="n">
         <v>43724</v>
       </c>
       <c r="B157" t="n">
@@ -7028,7 +6809,7 @@
         <v>28.05999946594238</v>
       </c>
       <c r="F157" t="n">
-        <v>27.49284553527832</v>
+        <v>27.49230003356934</v>
       </c>
       <c r="G157" t="n">
         <v>167634600</v>
@@ -7043,7 +6824,7 @@
         <v>1.18904755607484</v>
       </c>
       <c r="K157" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L157" t="n">
         <v>0</v>
@@ -7053,7 +6834,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="5" t="n">
+      <c r="A158" s="2" t="n">
         <v>43725</v>
       </c>
       <c r="B158" t="n">
@@ -7069,7 +6850,7 @@
         <v>27.69000053405762</v>
       </c>
       <c r="F158" t="n">
-        <v>27.13032531738281</v>
+        <v>27.12978744506836</v>
       </c>
       <c r="G158" t="n">
         <v>67414800</v>
@@ -7084,7 +6865,7 @@
         <v>1.173650771852525</v>
       </c>
       <c r="K158" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L158" t="n">
         <v>0</v>
@@ -7094,7 +6875,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="5" t="n">
+      <c r="A159" s="2" t="n">
         <v>43726</v>
       </c>
       <c r="B159" t="n">
@@ -7110,7 +6891,7 @@
         <v>27.21999931335449</v>
       </c>
       <c r="F159" t="n">
-        <v>26.66982460021973</v>
+        <v>26.66929626464844</v>
       </c>
       <c r="G159" t="n">
         <v>40567100</v>
@@ -7125,7 +6906,7 @@
         <v>1.113492087712366</v>
       </c>
       <c r="K159" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L159" t="n">
         <v>0</v>
@@ -7135,7 +6916,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="5" t="n">
+      <c r="A160" s="2" t="n">
         <v>43727</v>
       </c>
       <c r="B160" t="n">
@@ -7151,7 +6932,7 @@
         <v>27.29000091552734</v>
       </c>
       <c r="F160" t="n">
-        <v>26.73841094970703</v>
+        <v>26.73788070678711</v>
       </c>
       <c r="G160" t="n">
         <v>42155100</v>
@@ -7166,7 +6947,7 @@
         <v>1.11142863924541</v>
       </c>
       <c r="K160" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L160" t="n">
         <v>0</v>
@@ -7176,7 +6957,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="5" t="n">
+      <c r="A161" s="2" t="n">
         <v>43728</v>
       </c>
       <c r="B161" t="n">
@@ -7192,7 +6973,7 @@
         <v>27</v>
       </c>
       <c r="F161" t="n">
-        <v>26.45427322387695</v>
+        <v>26.45374870300293</v>
       </c>
       <c r="G161" t="n">
         <v>51946900</v>
@@ -7207,7 +6988,7 @@
         <v>1.03444444565546</v>
       </c>
       <c r="K161" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L161" t="n">
         <v>0</v>
@@ -7217,7 +6998,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="5" t="n">
+      <c r="A162" s="2" t="n">
         <v>43731</v>
       </c>
       <c r="B162" t="n">
@@ -7233,7 +7014,7 @@
         <v>27.47999954223633</v>
       </c>
       <c r="F162" t="n">
-        <v>26.92457008361816</v>
+        <v>26.92403602600098</v>
       </c>
       <c r="G162" t="n">
         <v>32643100</v>
@@ -7248,7 +7029,7 @@
         <v>0.9242856767442476</v>
       </c>
       <c r="K162" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L162" t="n">
         <v>0</v>
@@ -7258,7 +7039,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="5" t="n">
+      <c r="A163" s="2" t="n">
         <v>43732</v>
       </c>
       <c r="B163" t="n">
@@ -7274,7 +7055,7 @@
         <v>27.27000045776367</v>
       </c>
       <c r="F163" t="n">
-        <v>26.71881484985352</v>
+        <v>26.71828460693359</v>
       </c>
       <c r="G163" t="n">
         <v>36643400</v>
@@ -7289,7 +7070,7 @@
         <v>0.8111109657893074</v>
       </c>
       <c r="K163" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L163" t="n">
         <v>0</v>
@@ -7299,7 +7080,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="5" t="n">
+      <c r="A164" s="2" t="n">
         <v>43733</v>
       </c>
       <c r="B164" t="n">
@@ -7315,7 +7096,7 @@
         <v>27.34000015258789</v>
       </c>
       <c r="F164" t="n">
-        <v>26.78740119934082</v>
+        <v>26.78686904907227</v>
       </c>
       <c r="G164" t="n">
         <v>29038400</v>
@@ -7330,7 +7111,7 @@
         <v>0.6993650103372246</v>
       </c>
       <c r="K164" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L164" t="n">
         <v>0</v>
@@ -7340,7 +7121,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="5" t="n">
+      <c r="A165" s="2" t="n">
         <v>43734</v>
       </c>
       <c r="B165" t="n">
@@ -7356,7 +7137,7 @@
         <v>27.70000076293945</v>
       </c>
       <c r="F165" t="n">
-        <v>27.1401252746582</v>
+        <v>27.13958740234375</v>
       </c>
       <c r="G165" t="n">
         <v>33705900</v>
@@ -7371,7 +7152,7 @@
         <v>0.6423810323079415</v>
       </c>
       <c r="K165" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L165" t="n">
         <v>0</v>
@@ -7381,7 +7162,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="5" t="n">
+      <c r="A166" s="2" t="n">
         <v>43735</v>
       </c>
       <c r="B166" t="n">
@@ -7397,7 +7178,7 @@
         <v>27.65999984741211</v>
       </c>
       <c r="F166" t="n">
-        <v>27.10093307495117</v>
+        <v>27.10039520263672</v>
       </c>
       <c r="G166" t="n">
         <v>31886800</v>
@@ -7412,7 +7193,7 @@
         <v>0.495079494657972</v>
       </c>
       <c r="K166" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L166" t="n">
         <v>0</v>
@@ -7422,7 +7203,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="5" t="n">
+      <c r="A167" s="2" t="n">
         <v>43738</v>
       </c>
       <c r="B167" t="n">
@@ -7438,7 +7219,7 @@
         <v>27.54999923706055</v>
       </c>
       <c r="F167" t="n">
-        <v>26.99315643310547</v>
+        <v>26.99262046813965</v>
       </c>
       <c r="G167" t="n">
         <v>23143400</v>
@@ -7453,7 +7234,7 @@
         <v>0.3819047837030318</v>
       </c>
       <c r="K167" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L167" t="n">
         <v>0</v>
@@ -7463,7 +7244,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="5" t="n">
+      <c r="A168" s="2" t="n">
         <v>43739</v>
       </c>
       <c r="B168" t="n">
@@ -7479,7 +7260,7 @@
         <v>27.51000022888184</v>
       </c>
       <c r="F168" t="n">
-        <v>26.95396423339844</v>
+        <v>26.95343017578125</v>
       </c>
       <c r="G168" t="n">
         <v>32423200</v>
@@ -7494,7 +7275,7 @@
         <v>0.3088889651828346</v>
       </c>
       <c r="K168" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L168" t="n">
         <v>0</v>
@@ -7504,7 +7285,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="5" t="n">
+      <c r="A169" s="2" t="n">
         <v>43740</v>
       </c>
       <c r="B169" t="n">
@@ -7520,7 +7301,7 @@
         <v>26.71999931335449</v>
       </c>
       <c r="F169" t="n">
-        <v>26.179931640625</v>
+        <v>26.17941284179688</v>
       </c>
       <c r="G169" t="n">
         <v>51261200</v>
@@ -7535,7 +7316,7 @@
         <v>0.1922221713595924</v>
       </c>
       <c r="K169" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L169" t="n">
         <v>0</v>
@@ -7545,7 +7326,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="5" t="n">
+      <c r="A170" s="2" t="n">
         <v>43741</v>
       </c>
       <c r="B170" t="n">
@@ -7561,7 +7342,7 @@
         <v>26.73999977111816</v>
       </c>
       <c r="F170" t="n">
-        <v>26.19952583312988</v>
+        <v>26.19900703430176</v>
       </c>
       <c r="G170" t="n">
         <v>46076300</v>
@@ -7576,7 +7357,7 @@
         <v>0.1404761359805136</v>
       </c>
       <c r="K170" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L170" t="n">
         <v>0</v>
@@ -7586,7 +7367,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="5" t="n">
+      <c r="A171" s="2" t="n">
         <v>43742</v>
       </c>
       <c r="B171" t="n">
@@ -7602,7 +7383,7 @@
         <v>26.51000022888184</v>
       </c>
       <c r="F171" t="n">
-        <v>25.97417640686035</v>
+        <v>25.97366142272949</v>
       </c>
       <c r="G171" t="n">
         <v>47951600</v>
@@ -7617,7 +7398,7 @@
         <v>0.02698410881890112</v>
       </c>
       <c r="K171" t="n">
-        <v>26.52000045776367</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L171" t="n">
         <v>0</v>
@@ -7627,7 +7408,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="5" t="n">
+      <c r="A172" s="2" t="n">
         <v>43745</v>
       </c>
       <c r="B172" t="n">
@@ -7643,7 +7424,7 @@
         <v>26.17000007629395</v>
       </c>
       <c r="F172" t="n">
-        <v>25.64104843139648</v>
+        <v>25.64053726196289</v>
       </c>
       <c r="G172" t="n">
         <v>26252500</v>
@@ -7664,11 +7445,11 @@
         <v>26.17000007629395</v>
       </c>
       <c r="M172" t="n">
-        <v>-66.87053504955352</v>
+        <v>-42.0377046714675</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="5" t="n">
+      <c r="A173" s="2" t="n">
         <v>43746</v>
       </c>
       <c r="B173" t="n">
@@ -7684,7 +7465,7 @@
         <v>26.02000045776367</v>
       </c>
       <c r="F173" t="n">
-        <v>25.49408149719238</v>
+        <v>25.49357604980469</v>
       </c>
       <c r="G173" t="n">
         <v>30418900</v>
@@ -7699,7 +7480,7 @@
         <v>-0.1819047776479579</v>
       </c>
       <c r="K173" t="n">
-        <v>26.02000045776367</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="L173" t="n">
         <v>0</v>
@@ -7709,7 +7490,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="5" t="n">
+      <c r="A174" s="2" t="n">
         <v>43747</v>
       </c>
       <c r="B174" t="n">
@@ -7725,7 +7506,7 @@
         <v>26.52000045776367</v>
       </c>
       <c r="F174" t="n">
-        <v>25.98397445678711</v>
+        <v>25.98345947265625</v>
       </c>
       <c r="G174" t="n">
         <v>35141400</v>
@@ -7740,7 +7521,7 @@
         <v>-0.2853968786814853</v>
       </c>
       <c r="K174" t="n">
-        <v>26.02000045776367</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="L174" t="n">
         <v>0</v>
@@ -7750,7 +7531,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="5" t="n">
+      <c r="A175" s="2" t="n">
         <v>43748</v>
       </c>
       <c r="B175" t="n">
@@ -7766,7 +7547,7 @@
         <v>26.73999977111816</v>
       </c>
       <c r="F175" t="n">
-        <v>26.19952583312988</v>
+        <v>26.19900703430176</v>
       </c>
       <c r="G175" t="n">
         <v>31056500</v>
@@ -7781,7 +7562,7 @@
         <v>-0.3814285823277039</v>
       </c>
       <c r="K175" t="n">
-        <v>26.02000045776367</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="L175" t="n">
         <v>0</v>
@@ -7791,7 +7572,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="5" t="n">
+      <c r="A176" s="2" t="n">
         <v>43749</v>
       </c>
       <c r="B176" t="n">
@@ -7807,7 +7588,7 @@
         <v>27.26000022888184</v>
       </c>
       <c r="F176" t="n">
-        <v>26.70901679992676</v>
+        <v>26.70848655700684</v>
       </c>
       <c r="G176" t="n">
         <v>37055300</v>
@@ -7822,7 +7603,7 @@
         <v>-0.4231745402018241</v>
       </c>
       <c r="K176" t="n">
-        <v>26.02000045776367</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="L176" t="n">
         <v>0</v>
@@ -7832,7 +7613,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="5" t="n">
+      <c r="A177" s="2" t="n">
         <v>43752</v>
       </c>
       <c r="B177" t="n">
@@ -7848,7 +7629,7 @@
         <v>27.30999946594238</v>
       </c>
       <c r="F177" t="n">
-        <v>26.75800514221191</v>
+        <v>26.75747680664062</v>
       </c>
       <c r="G177" t="n">
         <v>20809900</v>
@@ -7863,7 +7644,7 @@
         <v>-0.4658730522034666</v>
       </c>
       <c r="K177" t="n">
-        <v>26.02000045776367</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="L177" t="n">
         <v>0</v>
@@ -7873,7 +7654,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="5" t="n">
+      <c r="A178" s="2" t="n">
         <v>43753</v>
       </c>
       <c r="B178" t="n">
@@ -7889,7 +7670,7 @@
         <v>27.60000038146973</v>
       </c>
       <c r="F178" t="n">
-        <v>27.04214477539062</v>
+        <v>27.0416088104248</v>
       </c>
       <c r="G178" t="n">
         <v>30455300</v>
@@ -7904,7 +7685,7 @@
         <v>-0.3461904374379969</v>
       </c>
       <c r="K178" t="n">
-        <v>26.02000045776367</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="L178" t="n">
         <v>0</v>
@@ -7914,7 +7695,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="5" t="n">
+      <c r="A179" s="2" t="n">
         <v>43754</v>
       </c>
       <c r="B179" t="n">
@@ -7930,7 +7711,7 @@
         <v>27.93000030517578</v>
       </c>
       <c r="F179" t="n">
-        <v>27.36547470092773</v>
+        <v>27.36493110656738</v>
       </c>
       <c r="G179" t="n">
         <v>31381300</v>
@@ -7945,7 +7726,7 @@
         <v>-0.2253967164054735</v>
       </c>
       <c r="K179" t="n">
-        <v>26.02000045776367</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="L179" t="n">
         <v>0</v>
@@ -7955,7 +7736,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="5" t="n">
+      <c r="A180" s="2" t="n">
         <v>43755</v>
       </c>
       <c r="B180" t="n">
@@ -7971,7 +7752,7 @@
         <v>27.65999984741211</v>
       </c>
       <c r="F180" t="n">
-        <v>27.10093307495117</v>
+        <v>27.10039520263672</v>
       </c>
       <c r="G180" t="n">
         <v>31405400</v>
@@ -7986,7 +7767,7 @@
         <v>-0.1185713873969192</v>
       </c>
       <c r="K180" t="n">
-        <v>26.02000045776367</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="L180" t="n">
         <v>0</v>
@@ -7996,7 +7777,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="5" t="n">
+      <c r="A181" s="2" t="n">
         <v>43756</v>
       </c>
       <c r="B181" t="n">
@@ -8012,7 +7793,7 @@
         <v>27.60000038146973</v>
       </c>
       <c r="F181" t="n">
-        <v>27.04214477539062</v>
+        <v>27.0416088104248</v>
       </c>
       <c r="G181" t="n">
         <v>36070900</v>
@@ -8033,11 +7814,11 @@
         <v>27.60000038146973</v>
       </c>
       <c r="M181" t="n">
-        <v>-286.2318662804885</v>
+        <v>-256.9106373243998</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="5" t="n">
+      <c r="A182" s="2" t="n">
         <v>43759</v>
       </c>
       <c r="B182" t="n">
@@ -8053,7 +7834,7 @@
         <v>27.77000045776367</v>
       </c>
       <c r="F182" t="n">
-        <v>27.20870971679688</v>
+        <v>27.20816993713379</v>
       </c>
       <c r="G182" t="n">
         <v>43337700</v>
@@ -8068,7 +7849,7 @@
         <v>0.1833334120493078</v>
       </c>
       <c r="K182" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L182" t="n">
         <v>0</v>
@@ -8078,7 +7859,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="5" t="n">
+      <c r="A183" s="2" t="n">
         <v>43760</v>
       </c>
       <c r="B183" t="n">
@@ -8094,7 +7875,7 @@
         <v>28.56999969482422</v>
       </c>
       <c r="F183" t="n">
-        <v>27.99253845214844</v>
+        <v>27.99198341369629</v>
       </c>
       <c r="G183" t="n">
         <v>64228700</v>
@@ -8109,7 +7890,7 @@
         <v>0.3592063358851831</v>
       </c>
       <c r="K183" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L183" t="n">
         <v>0</v>
@@ -8119,7 +7900,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="5" t="n">
+      <c r="A184" s="2" t="n">
         <v>43761</v>
       </c>
       <c r="B184" t="n">
@@ -8135,7 +7916,7 @@
         <v>28.95000076293945</v>
       </c>
       <c r="F184" t="n">
-        <v>28.36486053466797</v>
+        <v>28.36429786682129</v>
       </c>
       <c r="G184" t="n">
         <v>45930600</v>
@@ -8150,7 +7931,7 @@
         <v>0.5247619871109244</v>
       </c>
       <c r="K184" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L184" t="n">
         <v>0</v>
@@ -8160,7 +7941,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="5" t="n">
+      <c r="A185" s="2" t="n">
         <v>43762</v>
       </c>
       <c r="B185" t="n">
@@ -8176,7 +7957,7 @@
         <v>28.31999969482422</v>
       </c>
       <c r="F185" t="n">
-        <v>27.74759292602539</v>
+        <v>27.74704170227051</v>
       </c>
       <c r="G185" t="n">
         <v>60529900</v>
@@ -8191,7 +7972,7 @@
         <v>0.5958730606805709</v>
       </c>
       <c r="K185" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L185" t="n">
         <v>0</v>
@@ -8201,7 +7982,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="5" t="n">
+      <c r="A186" s="2" t="n">
         <v>43763</v>
       </c>
       <c r="B186" t="n">
@@ -8217,7 +7998,7 @@
         <v>29.25</v>
       </c>
       <c r="F186" t="n">
-        <v>28.65879249572754</v>
+        <v>28.65822410583496</v>
       </c>
       <c r="G186" t="n">
         <v>74476900</v>
@@ -8232,7 +8013,7 @@
         <v>0.7376191880967902</v>
       </c>
       <c r="K186" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L186" t="n">
         <v>0</v>
@@ -8242,7 +8023,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="5" t="n">
+      <c r="A187" s="2" t="n">
         <v>43766</v>
       </c>
       <c r="B187" t="n">
@@ -8258,7 +8039,7 @@
         <v>29.60000038146973</v>
       </c>
       <c r="F187" t="n">
-        <v>29.00172233581543</v>
+        <v>29.00114631652832</v>
       </c>
       <c r="G187" t="n">
         <v>37461800</v>
@@ -8273,7 +8054,7 @@
         <v>0.8674604325067428</v>
       </c>
       <c r="K187" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L187" t="n">
         <v>0</v>
@@ -8283,7 +8064,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="5" t="n">
+      <c r="A188" s="2" t="n">
         <v>43767</v>
       </c>
       <c r="B188" t="n">
@@ -8299,7 +8080,7 @@
         <v>29.81999969482422</v>
       </c>
       <c r="F188" t="n">
-        <v>29.2172737121582</v>
+        <v>29.21669387817383</v>
       </c>
       <c r="G188" t="n">
         <v>49994200</v>
@@ -8314,7 +8095,7 @@
         <v>0.9693651047963954</v>
       </c>
       <c r="K188" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L188" t="n">
         <v>0</v>
@@ -8324,7 +8105,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="5" t="n">
+      <c r="A189" s="2" t="n">
         <v>43768</v>
       </c>
       <c r="B189" t="n">
@@ -8340,7 +8121,7 @@
         <v>30.07999992370605</v>
       </c>
       <c r="F189" t="n">
-        <v>29.47201728820801</v>
+        <v>29.47143363952637</v>
       </c>
       <c r="G189" t="n">
         <v>63001200</v>
@@ -8355,7 +8136,7 @@
         <v>1.115873064313615</v>
       </c>
       <c r="K189" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L189" t="n">
         <v>0</v>
@@ -8365,7 +8146,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="5" t="n">
+      <c r="A190" s="2" t="n">
         <v>43769</v>
       </c>
       <c r="B190" t="n">
@@ -8381,7 +8162,7 @@
         <v>30.38999938964844</v>
       </c>
       <c r="F190" t="n">
-        <v>29.7757511138916</v>
+        <v>29.77516174316406</v>
       </c>
       <c r="G190" t="n">
         <v>67070400</v>
@@ -8396,7 +8177,7 @@
         <v>1.2511110457163</v>
       </c>
       <c r="K190" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L190" t="n">
         <v>0</v>
@@ -8406,7 +8187,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="5" t="n">
+      <c r="A191" s="2" t="n">
         <v>43770</v>
       </c>
       <c r="B191" t="n">
@@ -8422,7 +8203,7 @@
         <v>30.43000030517578</v>
       </c>
       <c r="F191" t="n">
-        <v>29.81494331359863</v>
+        <v>29.81435012817383</v>
       </c>
       <c r="G191" t="n">
         <v>101210200</v>
@@ -8437,7 +8218,7 @@
         <v>1.370952273172048</v>
       </c>
       <c r="K191" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L191" t="n">
         <v>0</v>
@@ -8447,7 +8228,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="5" t="n">
+      <c r="A192" s="2" t="n">
         <v>43773</v>
       </c>
       <c r="B192" t="n">
@@ -8463,7 +8244,7 @@
         <v>30.36000061035156</v>
       </c>
       <c r="F192" t="n">
-        <v>29.74635887145996</v>
+        <v>29.74576759338379</v>
       </c>
       <c r="G192" t="n">
         <v>81023400</v>
@@ -8478,7 +8259,7 @@
         <v>1.386507912287637</v>
       </c>
       <c r="K192" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L192" t="n">
         <v>0</v>
@@ -8488,7 +8269,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="5" t="n">
+      <c r="A193" s="2" t="n">
         <v>43774</v>
       </c>
       <c r="B193" t="n">
@@ -8504,7 +8285,7 @@
         <v>29.64999961853027</v>
       </c>
       <c r="F193" t="n">
-        <v>29.05071067810059</v>
+        <v>29.05013275146484</v>
       </c>
       <c r="G193" t="n">
         <v>92980900</v>
@@ -8519,7 +8300,7 @@
         <v>1.298571298992826</v>
       </c>
       <c r="K193" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L193" t="n">
         <v>0</v>
@@ -8529,7 +8310,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="5" t="n">
+      <c r="A194" s="2" t="n">
         <v>43775</v>
       </c>
       <c r="B194" t="n">
@@ -8545,7 +8326,7 @@
         <v>29.70999908447266</v>
       </c>
       <c r="F194" t="n">
-        <v>29.1094970703125</v>
+        <v>29.10891914367676</v>
       </c>
       <c r="G194" t="n">
         <v>154003100</v>
@@ -8560,7 +8341,7 @@
         <v>1.27730145530095</v>
       </c>
       <c r="K194" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L194" t="n">
         <v>0</v>
@@ -8570,7 +8351,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="5" t="n">
+      <c r="A195" s="2" t="n">
         <v>43776</v>
       </c>
       <c r="B195" t="n">
@@ -8586,7 +8367,7 @@
         <v>30.89999961853027</v>
       </c>
       <c r="F195" t="n">
-        <v>30.27544403076172</v>
+        <v>30.27484321594238</v>
       </c>
       <c r="G195" t="n">
         <v>96329000</v>
@@ -8601,7 +8382,7 @@
         <v>1.252063357640825</v>
       </c>
       <c r="K195" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L195" t="n">
         <v>0</v>
@@ -8611,7 +8392,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="5" t="n">
+      <c r="A196" s="2" t="n">
         <v>43777</v>
       </c>
       <c r="B196" t="n">
@@ -8627,7 +8408,7 @@
         <v>30.02000045776367</v>
       </c>
       <c r="F196" t="n">
-        <v>29.41323280334473</v>
+        <v>29.41264915466309</v>
       </c>
       <c r="G196" t="n">
         <v>61567700</v>
@@ -8642,7 +8423,7 @@
         <v>1.142539523896716</v>
       </c>
       <c r="K196" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L196" t="n">
         <v>0</v>
@@ -8652,7 +8433,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="5" t="n">
+      <c r="A197" s="2" t="n">
         <v>43780</v>
       </c>
       <c r="B197" t="n">
@@ -8668,7 +8449,7 @@
         <v>30.45000076293945</v>
       </c>
       <c r="F197" t="n">
-        <v>29.83454132080078</v>
+        <v>29.83394813537598</v>
       </c>
       <c r="G197" t="n">
         <v>30570500</v>
@@ -8683,7 +8464,7 @@
         <v>1.06063485524011</v>
       </c>
       <c r="K197" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L197" t="n">
         <v>0</v>
@@ -8693,7 +8474,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="5" t="n">
+      <c r="A198" s="2" t="n">
         <v>43781</v>
       </c>
       <c r="B198" t="n">
@@ -8709,7 +8490,7 @@
         <v>30.02000045776367</v>
       </c>
       <c r="F198" t="n">
-        <v>29.60860443115234</v>
+        <v>29.60801696777344</v>
       </c>
       <c r="G198" t="n">
         <v>41655600</v>
@@ -8724,7 +8505,7 @@
         <v>0.9249205816359733</v>
       </c>
       <c r="K198" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L198" t="n">
         <v>0</v>
@@ -8734,7 +8515,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="5" t="n">
+      <c r="A199" s="2" t="n">
         <v>43782</v>
       </c>
       <c r="B199" t="n">
@@ -8750,7 +8531,7 @@
         <v>29.89999961853027</v>
       </c>
       <c r="F199" t="n">
-        <v>29.49024963378906</v>
+        <v>29.48966407775879</v>
       </c>
       <c r="G199" t="n">
         <v>41827700</v>
@@ -8765,7 +8546,7 @@
         <v>0.7609523894294874</v>
       </c>
       <c r="K199" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L199" t="n">
         <v>0</v>
@@ -8775,7 +8556,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="5" t="n">
+      <c r="A200" s="2" t="n">
         <v>43783</v>
       </c>
       <c r="B200" t="n">
@@ -8791,7 +8572,7 @@
         <v>29.29999923706055</v>
       </c>
       <c r="F200" t="n">
-        <v>28.89847183227539</v>
+        <v>28.89789772033691</v>
       </c>
       <c r="G200" t="n">
         <v>44595200</v>
@@ -8806,7 +8587,7 @@
         <v>0.5701586708189943</v>
       </c>
       <c r="K200" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L200" t="n">
         <v>0</v>
@@ -8816,7 +8597,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="5" t="n">
+      <c r="A201" s="2" t="n">
         <v>43787</v>
       </c>
       <c r="B201" t="n">
@@ -8832,7 +8613,7 @@
         <v>29.07999992370605</v>
       </c>
       <c r="F201" t="n">
-        <v>28.68148612976074</v>
+        <v>28.68091583251953</v>
       </c>
       <c r="G201" t="n">
         <v>54468100</v>
@@ -8847,7 +8628,7 @@
         <v>0.3603173210507364</v>
       </c>
       <c r="K201" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L201" t="n">
         <v>0</v>
@@ -8857,7 +8638,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="5" t="n">
+      <c r="A202" s="2" t="n">
         <v>43788</v>
       </c>
       <c r="B202" t="n">
@@ -8873,7 +8654,7 @@
         <v>28.78000068664551</v>
       </c>
       <c r="F202" t="n">
-        <v>28.38559722900391</v>
+        <v>28.38503456115723</v>
       </c>
       <c r="G202" t="n">
         <v>33740200</v>
@@ -8888,7 +8669,7 @@
         <v>0.2074602823408824</v>
       </c>
       <c r="K202" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L202" t="n">
         <v>0</v>
@@ -8898,7 +8679,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="5" t="n">
+      <c r="A203" s="2" t="n">
         <v>43790</v>
       </c>
       <c r="B203" t="n">
@@ -8914,7 +8695,7 @@
         <v>29.85000038146973</v>
       </c>
       <c r="F203" t="n">
-        <v>29.4409351348877</v>
+        <v>29.44034957885742</v>
       </c>
       <c r="G203" t="n">
         <v>53033100</v>
@@ -8929,7 +8710,7 @@
         <v>0.1239683665926492</v>
       </c>
       <c r="K203" t="n">
-        <v>27.77000045776367</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="L203" t="n">
         <v>0</v>
@@ -8939,7 +8720,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="5" t="n">
+      <c r="A204" s="2" t="n">
         <v>43791</v>
       </c>
       <c r="B204" t="n">
@@ -8955,7 +8736,7 @@
         <v>29.97999954223633</v>
       </c>
       <c r="F204" t="n">
-        <v>29.56915283203125</v>
+        <v>29.56856536865234</v>
       </c>
       <c r="G204" t="n">
         <v>34786000</v>
@@ -8976,11 +8757,11 @@
         <v>29.97999954223633</v>
       </c>
       <c r="M204" t="n">
-        <v>368.5789056399371</v>
+        <v>414.0360765294595</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="5" t="n">
+      <c r="A205" s="2" t="n">
         <v>43794</v>
       </c>
       <c r="B205" t="n">
@@ -8996,7 +8777,7 @@
         <v>29.72999954223633</v>
       </c>
       <c r="F205" t="n">
-        <v>29.32257843017578</v>
+        <v>29.32199668884277</v>
       </c>
       <c r="G205" t="n">
         <v>29868400</v>
@@ -9011,7 +8792,7 @@
         <v>-0.114761836945064</v>
       </c>
       <c r="K205" t="n">
-        <v>29.72999954223633</v>
+        <v>29.97999954223633</v>
       </c>
       <c r="L205" t="n">
         <v>0</v>
@@ -9021,7 +8802,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="5" t="n">
+      <c r="A206" s="2" t="n">
         <v>43795</v>
       </c>
       <c r="B206" t="n">
@@ -9037,7 +8818,7 @@
         <v>29.19000053405762</v>
       </c>
       <c r="F206" t="n">
-        <v>28.78997993469238</v>
+        <v>28.78940773010254</v>
       </c>
       <c r="G206" t="n">
         <v>54147800</v>
@@ -9052,7 +8833,7 @@
         <v>-0.2961904737684478</v>
       </c>
       <c r="K206" t="n">
-        <v>29.72999954223633</v>
+        <v>29.97999954223633</v>
       </c>
       <c r="L206" t="n">
         <v>0</v>
@@ -9062,7 +8843,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="5" t="n">
+      <c r="A207" s="2" t="n">
         <v>43796</v>
       </c>
       <c r="B207" t="n">
@@ -9078,7 +8859,7 @@
         <v>29.32999992370605</v>
       </c>
       <c r="F207" t="n">
-        <v>28.92806053161621</v>
+        <v>28.92748641967773</v>
       </c>
       <c r="G207" t="n">
         <v>33072500</v>
@@ -9093,7 +8874,7 @@
         <v>-0.3766667199513272</v>
       </c>
       <c r="K207" t="n">
-        <v>29.72999954223633</v>
+        <v>29.97999954223633</v>
       </c>
       <c r="L207" t="n">
         <v>0</v>
@@ -9103,7 +8884,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="5" t="n">
+      <c r="A208" s="2" t="n">
         <v>43797</v>
       </c>
       <c r="B208" t="n">
@@ -9119,7 +8900,7 @@
         <v>29.53000068664551</v>
       </c>
       <c r="F208" t="n">
-        <v>29.12532043457031</v>
+        <v>29.12474250793457</v>
       </c>
       <c r="G208" t="n">
         <v>46602800</v>
@@ -9134,7 +8915,7 @@
         <v>-0.4144443935818138</v>
       </c>
       <c r="K208" t="n">
-        <v>29.72999954223633</v>
+        <v>29.97999954223633</v>
       </c>
       <c r="L208" t="n">
         <v>0</v>
@@ -9144,7 +8925,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="5" t="n">
+      <c r="A209" s="2" t="n">
         <v>43798</v>
       </c>
       <c r="B209" t="n">
@@ -9160,7 +8941,7 @@
         <v>29.14999961853027</v>
       </c>
       <c r="F209" t="n">
-        <v>28.75052642822266</v>
+        <v>28.74995803833008</v>
       </c>
       <c r="G209" t="n">
         <v>37699000</v>
@@ -9175,7 +8956,7 @@
         <v>-0.3992062523251469</v>
       </c>
       <c r="K209" t="n">
-        <v>29.72999954223633</v>
+        <v>29.97999954223633</v>
       </c>
       <c r="L209" t="n">
         <v>0</v>
@@ -9185,7 +8966,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="5" t="n">
+      <c r="A210" s="2" t="n">
         <v>43801</v>
       </c>
       <c r="B210" t="n">
@@ -9201,7 +8982,7 @@
         <v>29.06999969482422</v>
       </c>
       <c r="F210" t="n">
-        <v>28.67162322998047</v>
+        <v>28.67105293273926</v>
       </c>
       <c r="G210" t="n">
         <v>31353600</v>
@@ -9216,7 +8997,7 @@
         <v>-0.3522221398732022</v>
       </c>
       <c r="K210" t="n">
-        <v>29.72999954223633</v>
+        <v>29.97999954223633</v>
       </c>
       <c r="L210" t="n">
         <v>0</v>
@@ -9226,7 +9007,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="5" t="n">
+      <c r="A211" s="2" t="n">
         <v>43802</v>
       </c>
       <c r="B211" t="n">
@@ -9242,7 +9023,7 @@
         <v>28.97999954223633</v>
       </c>
       <c r="F211" t="n">
-        <v>28.58285522460938</v>
+        <v>28.5822868347168</v>
       </c>
       <c r="G211" t="n">
         <v>29194000</v>
@@ -9257,7 +9038,7 @@
         <v>-0.2628571949307883</v>
       </c>
       <c r="K211" t="n">
-        <v>29.72999954223633</v>
+        <v>29.97999954223633</v>
       </c>
       <c r="L211" t="n">
         <v>0</v>
@@ -9267,7 +9048,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="5" t="n">
+      <c r="A212" s="2" t="n">
         <v>43803</v>
       </c>
       <c r="B212" t="n">
@@ -9283,7 +9064,7 @@
         <v>29.65999984741211</v>
       </c>
       <c r="F212" t="n">
-        <v>29.25353813171387</v>
+        <v>29.25295639038086</v>
       </c>
       <c r="G212" t="n">
         <v>44960000</v>
@@ -9298,7 +9079,7 @@
         <v>-0.2473016769166989</v>
       </c>
       <c r="K212" t="n">
-        <v>29.72999954223633</v>
+        <v>29.97999954223633</v>
       </c>
       <c r="L212" t="n">
         <v>0</v>
@@ -9308,7 +9089,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="5" t="n">
+      <c r="A213" s="2" t="n">
         <v>43804</v>
       </c>
       <c r="B213" t="n">
@@ -9324,7 +9105,7 @@
         <v>30.04999923706055</v>
       </c>
       <c r="F213" t="n">
-        <v>29.63819313049316</v>
+        <v>29.63760375976562</v>
       </c>
       <c r="G213" t="n">
         <v>50447000</v>
@@ -9339,7 +9120,7 @@
         <v>-0.224761962890625</v>
       </c>
       <c r="K213" t="n">
-        <v>29.72999954223633</v>
+        <v>29.97999954223633</v>
       </c>
       <c r="L213" t="n">
         <v>0</v>
@@ -9349,7 +9130,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="5" t="n">
+      <c r="A214" s="2" t="n">
         <v>43805</v>
       </c>
       <c r="B214" t="n">
@@ -9365,7 +9146,7 @@
         <v>30.35000038146973</v>
       </c>
       <c r="F214" t="n">
-        <v>29.93408393859863</v>
+        <v>29.9334888458252</v>
       </c>
       <c r="G214" t="n">
         <v>44348600</v>
@@ -9380,7 +9161,7 @@
         <v>-0.1892063504173649</v>
       </c>
       <c r="K214" t="n">
-        <v>29.72999954223633</v>
+        <v>29.97999954223633</v>
       </c>
       <c r="L214" t="n">
         <v>0</v>
@@ -9390,7 +9171,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="5" t="n">
+      <c r="A215" s="2" t="n">
         <v>43808</v>
       </c>
       <c r="B215" t="n">
@@ -9406,7 +9187,7 @@
         <v>30.20999908447266</v>
       </c>
       <c r="F215" t="n">
-        <v>29.79600143432617</v>
+        <v>29.79541015625</v>
       </c>
       <c r="G215" t="n">
         <v>34694100</v>
@@ -9421,7 +9202,7 @@
         <v>-0.09968270195855311</v>
       </c>
       <c r="K215" t="n">
-        <v>29.72999954223633</v>
+        <v>29.97999954223633</v>
       </c>
       <c r="L215" t="n">
         <v>0</v>
@@ -9431,7 +9212,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="5" t="n">
+      <c r="A216" s="2" t="n">
         <v>43809</v>
       </c>
       <c r="B216" t="n">
@@ -9447,7 +9228,7 @@
         <v>30.44000053405762</v>
       </c>
       <c r="F216" t="n">
-        <v>30.02285003662109</v>
+        <v>30.02225303649902</v>
       </c>
       <c r="G216" t="n">
         <v>27532700</v>
@@ -9468,11 +9249,11 @@
         <v>30.44000053405762</v>
       </c>
       <c r="M216" t="n">
-        <v>-116.6230255198105</v>
+        <v>-85.07148002296826</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="5" t="n">
+      <c r="A217" s="2" t="n">
         <v>43810</v>
       </c>
       <c r="B217" t="n">
@@ -9488,7 +9269,7 @@
         <v>30.39999961853027</v>
       </c>
       <c r="F217" t="n">
-        <v>29.9833984375</v>
+        <v>29.98280334472656</v>
       </c>
       <c r="G217" t="n">
         <v>38458300</v>
@@ -9503,7 +9284,7 @@
         <v>0.1241267673552962</v>
       </c>
       <c r="K217" t="n">
-        <v>30.39999961853027</v>
+        <v>30.44000053405762</v>
       </c>
       <c r="L217" t="n">
         <v>0</v>
@@ -9513,7 +9294,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="5" t="n">
+      <c r="A218" s="2" t="n">
         <v>43811</v>
       </c>
       <c r="B218" t="n">
@@ -9529,7 +9310,7 @@
         <v>30.96999931335449</v>
       </c>
       <c r="F218" t="n">
-        <v>30.54558563232422</v>
+        <v>30.54498100280762</v>
       </c>
       <c r="G218" t="n">
         <v>47797800</v>
@@ -9544,7 +9325,7 @@
         <v>0.3015871199350499</v>
       </c>
       <c r="K218" t="n">
-        <v>30.39999961853027</v>
+        <v>30.44000053405762</v>
       </c>
       <c r="L218" t="n">
         <v>0</v>
@@ -9554,7 +9335,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="5" t="n">
+      <c r="A219" s="2" t="n">
         <v>43812</v>
       </c>
       <c r="B219" t="n">
@@ -9570,7 +9351,7 @@
         <v>29.97999954223633</v>
       </c>
       <c r="F219" t="n">
-        <v>29.56915283203125</v>
+        <v>29.56856536865234</v>
       </c>
       <c r="G219" t="n">
         <v>105004400</v>
@@ -9585,7 +9366,7 @@
         <v>0.4046030195932531</v>
       </c>
       <c r="K219" t="n">
-        <v>30.39999961853027</v>
+        <v>30.44000053405762</v>
       </c>
       <c r="L219" t="n">
         <v>0</v>
@@ -9595,7 +9376,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="5" t="n">
+      <c r="A220" s="2" t="n">
         <v>43815</v>
       </c>
       <c r="B220" t="n">
@@ -9611,7 +9392,7 @@
         <v>29.40999984741211</v>
       </c>
       <c r="F220" t="n">
-        <v>29.0069637298584</v>
+        <v>29.00638771057129</v>
       </c>
       <c r="G220" t="n">
         <v>68871000</v>
@@ -9626,7 +9407,7 @@
         <v>0.4757141537136498</v>
       </c>
       <c r="K220" t="n">
-        <v>30.39999961853027</v>
+        <v>30.44000053405762</v>
       </c>
       <c r="L220" t="n">
         <v>0</v>
@@ -9636,7 +9417,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="5" t="n">
+      <c r="A221" s="2" t="n">
         <v>43816</v>
       </c>
       <c r="B221" t="n">
@@ -9652,7 +9433,7 @@
         <v>29.85000038146973</v>
       </c>
       <c r="F221" t="n">
-        <v>29.4409351348877</v>
+        <v>29.44034957885742</v>
       </c>
       <c r="G221" t="n">
         <v>40679900</v>
@@ -9667,7 +9448,7 @@
         <v>0.470634793478343</v>
       </c>
       <c r="K221" t="n">
-        <v>30.39999961853027</v>
+        <v>30.44000053405762</v>
       </c>
       <c r="L221" t="n">
         <v>0</v>
@@ -9677,7 +9458,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="5" t="n">
+      <c r="A222" s="2" t="n">
         <v>43817</v>
       </c>
       <c r="B222" t="n">
@@ -9693,7 +9474,7 @@
         <v>30.54000091552734</v>
       </c>
       <c r="F222" t="n">
-        <v>30.12148094177246</v>
+        <v>30.12088203430176</v>
       </c>
       <c r="G222" t="n">
         <v>64201600</v>
@@ -9708,7 +9489,7 @@
         <v>0.455555567665705</v>
       </c>
       <c r="K222" t="n">
-        <v>30.39999961853027</v>
+        <v>30.44000053405762</v>
       </c>
       <c r="L222" t="n">
         <v>0</v>
@@ -9718,7 +9499,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="5" t="n">
+      <c r="A223" s="2" t="n">
         <v>43818</v>
       </c>
       <c r="B223" t="n">
@@ -9734,7 +9515,7 @@
         <v>30.61000061035156</v>
       </c>
       <c r="F223" t="n">
-        <v>30.19052124023438</v>
+        <v>30.18992042541504</v>
       </c>
       <c r="G223" t="n">
         <v>39696000</v>
@@ -9749,7 +9530,7 @@
         <v>0.3973016284760966</v>
       </c>
       <c r="K223" t="n">
-        <v>30.39999961853027</v>
+        <v>30.44000053405762</v>
       </c>
       <c r="L223" t="n">
         <v>0</v>
@@ -9759,7 +9540,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="5" t="n">
+      <c r="A224" s="2" t="n">
         <v>43819</v>
       </c>
       <c r="B224" t="n">
@@ -9775,7 +9556,7 @@
         <v>30.26000022888184</v>
       </c>
       <c r="F224" t="n">
-        <v>29.84531593322754</v>
+        <v>29.84472274780273</v>
       </c>
       <c r="G224" t="n">
         <v>93064900</v>
@@ -9790,7 +9571,7 @@
         <v>0.3833335089305088</v>
       </c>
       <c r="K224" t="n">
-        <v>30.39999961853027</v>
+        <v>30.44000053405762</v>
       </c>
       <c r="L224" t="n">
         <v>0</v>
@@ -9800,7 +9581,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="5" t="n">
+      <c r="A225" s="2" t="n">
         <v>43822</v>
       </c>
       <c r="B225" t="n">
@@ -9816,7 +9597,7 @@
         <v>30.5</v>
       </c>
       <c r="F225" t="n">
-        <v>30.0820255279541</v>
+        <v>30.08142852783203</v>
       </c>
       <c r="G225" t="n">
         <v>21970200</v>
@@ -9831,7 +9612,7 @@
         <v>0.3652381896972656</v>
       </c>
       <c r="K225" t="n">
-        <v>30.39999961853027</v>
+        <v>30.44000053405762</v>
       </c>
       <c r="L225" t="n">
         <v>0</v>
@@ -9841,7 +9622,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="5" t="n">
+      <c r="A226" s="2" t="n">
         <v>43825</v>
       </c>
       <c r="B226" t="n">
@@ -9857,7 +9638,7 @@
         <v>30.90999984741211</v>
       </c>
       <c r="F226" t="n">
-        <v>30.48640823364258</v>
+        <v>30.48580169677734</v>
       </c>
       <c r="G226" t="n">
         <v>24810500</v>
@@ -9872,7 +9653,7 @@
         <v>0.3657143910725935</v>
       </c>
       <c r="K226" t="n">
-        <v>30.39999961853027</v>
+        <v>30.44000053405762</v>
       </c>
       <c r="L226" t="n">
         <v>0</v>
@@ -9882,7 +9663,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="5" t="n">
+      <c r="A227" s="2" t="n">
         <v>43826</v>
       </c>
       <c r="B227" t="n">
@@ -9898,7 +9679,7 @@
         <v>30.52000045776367</v>
       </c>
       <c r="F227" t="n">
-        <v>30.51834869384766</v>
+        <v>30.51774215698242</v>
       </c>
       <c r="G227" t="n">
         <v>24995100</v>
@@ -9913,7 +9694,7 @@
         <v>0.2523811885288794</v>
       </c>
       <c r="K227" t="n">
-        <v>30.39999961853027</v>
+        <v>30.44000053405762</v>
       </c>
       <c r="L227" t="n">
         <v>0</v>
@@ -9923,7 +9704,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="5" t="n">
+      <c r="A228" s="2" t="n">
         <v>43829</v>
       </c>
       <c r="B228" t="n">
@@ -9939,7 +9720,7 @@
         <v>30.18000030517578</v>
       </c>
       <c r="F228" t="n">
-        <v>30.17836761474609</v>
+        <v>30.17776870727539</v>
       </c>
       <c r="G228" t="n">
         <v>22111600</v>
@@ -9954,7 +9735,7 @@
         <v>0.2341272868807351</v>
       </c>
       <c r="K228" t="n">
-        <v>30.39999961853027</v>
+        <v>30.44000053405762</v>
       </c>
       <c r="L228" t="n">
         <v>0</v>
